--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449E634-480B-AF4B-A540-593B8A1C2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B64C76-9206-4048-A64C-00CD34C16518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,24 @@
     <sheet name="BVR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="274">
   <si>
     <t>Initials</t>
   </si>
@@ -796,6 +809,54 @@
   </si>
   <si>
     <t>Duration_days</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R1_F1_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R1_F2_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R2_F1_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R2_F2_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R1_F1_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R1_F2_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R2_F1_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R2_F2_05Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R1_F1_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R1_F2_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R2_F1_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R2_F2_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R1_F1_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R1_F2_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R2_F1_08Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_8m_R2_F2_08Jul19</t>
   </si>
 </sst>
 </file>
@@ -1775,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172:J178"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2840,7 +2901,7 @@
         <v>43655</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="E42" s="2">
         <v>0.11509999999999999</v>
@@ -2864,7 +2925,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="E43" s="2">
         <v>0.1139</v>
@@ -2890,7 +2951,7 @@
         <v>43655</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="E44" s="2">
         <v>0.1139</v>
@@ -2916,7 +2977,7 @@
         <v>43655</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="E45" s="2">
         <v>0.1148</v>
@@ -2941,7 +3002,7 @@
         <v>43655</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="E46" s="2">
         <v>0.1145</v>
@@ -2969,7 +3030,7 @@
         <v>43655</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="E47" s="2">
         <v>0.11409999999999999</v>
@@ -2995,7 +3056,7 @@
         <v>43655</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="E48" s="2">
         <v>0.11360000000000001</v>
@@ -3021,7 +3082,7 @@
         <v>43655</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="E49" s="2">
         <v>0.1145</v>
@@ -3249,7 +3310,7 @@
         <v>43683</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="E58" s="2">
         <v>0.1135</v>
@@ -3275,7 +3336,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="E59" s="2">
         <v>0.11360000000000001</v>
@@ -3301,7 +3362,7 @@
         <v>43683</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="E60" s="2">
         <v>0.1139</v>
@@ -3327,7 +3388,7 @@
         <v>43683</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="E61" s="2">
         <v>0.1139</v>
@@ -3353,7 +3414,7 @@
         <v>43683</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="E62" s="2">
         <v>0.1149</v>
@@ -3379,7 +3440,7 @@
         <v>43683</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="E63" s="2">
         <v>0.1147</v>
@@ -3405,7 +3466,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="E64" s="2">
         <v>0.1143</v>
@@ -3431,7 +3492,7 @@
         <v>43683</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="E65" s="2">
         <v>0.11360000000000001</v>
@@ -3692,7 +3753,7 @@
       <c r="B75" s="3">
         <v>43710</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="13" t="s">
         <v>253</v>
       </c>
       <c r="E75" s="2">
@@ -4898,7 +4959,7 @@
       <c r="B118" s="3">
         <v>43585</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E118" s="2">
@@ -4950,7 +5011,7 @@
       <c r="B120" s="3">
         <v>43585</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E120" s="2">
@@ -6564,7 +6625,7 @@
       <c r="G181" s="2">
         <v>100</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="13">
         <v>275</v>
       </c>
       <c r="I181" s="2"/>
@@ -6592,7 +6653,7 @@
       <c r="G182" s="2">
         <v>100</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="13">
         <v>275</v>
       </c>
       <c r="I182" s="2"/>
@@ -6620,7 +6681,7 @@
       <c r="G183" s="2">
         <v>100</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="13">
         <v>325</v>
       </c>
       <c r="I183" s="2"/>
@@ -6648,7 +6709,7 @@
       <c r="G184" s="2">
         <v>100</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="13">
         <v>325</v>
       </c>
       <c r="I184" s="2"/>
@@ -6676,7 +6737,7 @@
       <c r="G185" s="2">
         <v>100</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="13">
         <v>335</v>
       </c>
       <c r="I185" s="2"/>
@@ -6704,7 +6765,7 @@
       <c r="G186" s="2">
         <v>100</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="13">
         <v>335</v>
       </c>
       <c r="I186" s="2"/>
@@ -6732,7 +6793,7 @@
       <c r="G187" s="2">
         <v>100</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="13">
         <v>330</v>
       </c>
       <c r="I187" s="2"/>
@@ -6760,7 +6821,7 @@
       <c r="G188" s="2">
         <v>100</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="13">
         <v>330</v>
       </c>
       <c r="I188" s="2"/>
@@ -6788,7 +6849,7 @@
       <c r="G189" s="2">
         <v>100</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="13">
         <v>325</v>
       </c>
       <c r="I189" s="2"/>
@@ -6816,7 +6877,7 @@
       <c r="G190" s="2">
         <v>100</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="13">
         <v>325</v>
       </c>
       <c r="I190" s="2"/>
@@ -6844,7 +6905,7 @@
       <c r="G191" s="2">
         <v>100</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="13">
         <v>325</v>
       </c>
       <c r="I191" s="2"/>
@@ -6872,7 +6933,7 @@
       <c r="G192" s="2">
         <v>100</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="13">
         <v>325</v>
       </c>
       <c r="I192" s="2"/>
@@ -6900,7 +6961,7 @@
       <c r="G193" s="2">
         <v>100</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="13">
         <v>350</v>
       </c>
       <c r="I193" s="2"/>
@@ -6928,7 +6989,7 @@
       <c r="G194" s="2">
         <v>100</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="13">
         <v>350</v>
       </c>
       <c r="I194" s="2"/>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B64C76-9206-4048-A64C-00CD34C16518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C75FE0-EF04-C047-A43E-7B202854FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="275">
   <si>
     <t>Initials</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>F_sed_8m_R2_F2_08Jul19</t>
+  </si>
+  <si>
+    <t>B_sed_5m_R2_F2_08Aug19</t>
   </si>
 </sst>
 </file>
@@ -1836,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138:C145"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6382,7 +6385,7 @@
         <v>43686</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="E172" s="2">
         <v>0.11409999999999999</v>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C75FE0-EF04-C047-A43E-7B202854FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5863C0-907F-C74A-900A-8C8D73786543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5863C0-907F-C74A-900A-8C8D73786543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BB907-27F9-9741-A4EA-677D0CD4A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="279">
   <si>
     <t>Initials</t>
   </si>
@@ -860,6 +860,18 @@
   </si>
   <si>
     <t>B_sed_5m_R2_F2_08Aug19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R2_F2_02Sep19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_sed_10m_R2_F1_29Apr19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_sed_10m_R2_F2_29Apr19 </t>
+  </si>
+  <si>
+    <t>originally recorded as R1</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1482,6 +1494,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1839,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3740,9 +3753,7 @@
       <c r="G74" s="2">
         <v>100</v>
       </c>
-      <c r="H74" s="2">
-        <v>360</v>
-      </c>
+      <c r="H74" s="14"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2">
         <v>14</v>
@@ -3756,7 +3767,7 @@
       <c r="B75" s="3">
         <v>43710</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>253</v>
       </c>
       <c r="E75" s="2">
@@ -3768,9 +3779,7 @@
       <c r="G75" s="2">
         <v>100</v>
       </c>
-      <c r="H75" s="2">
-        <v>360</v>
-      </c>
+      <c r="H75" s="14"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2">
         <v>14</v>
@@ -3796,9 +3805,7 @@
       <c r="G76" s="2">
         <v>100</v>
       </c>
-      <c r="H76" s="2">
-        <v>370</v>
-      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2">
         <v>14</v>
@@ -3812,8 +3819,8 @@
       <c r="B77" s="3">
         <v>43710</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>253</v>
+      <c r="C77" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="E77" s="2">
         <v>0.1142</v>
@@ -3824,7 +3831,7 @@
       <c r="G77" s="2">
         <v>100</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2">
         <v>14</v>
@@ -3848,9 +3855,7 @@
       <c r="G78" s="2">
         <v>100</v>
       </c>
-      <c r="H78" s="13">
-        <v>388</v>
-      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2">
         <v>14</v>
@@ -3874,9 +3879,7 @@
       <c r="G79" s="2">
         <v>100</v>
       </c>
-      <c r="H79" s="13">
-        <v>388</v>
-      </c>
+      <c r="H79" s="14"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2">
         <v>14</v>
@@ -3900,9 +3903,7 @@
       <c r="G80" s="2">
         <v>100</v>
       </c>
-      <c r="H80" s="13">
-        <v>365</v>
-      </c>
+      <c r="H80" s="14"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2">
         <v>14</v>
@@ -3926,9 +3927,7 @@
       <c r="G81" s="2">
         <v>100</v>
       </c>
-      <c r="H81" s="13">
-        <v>365</v>
-      </c>
+      <c r="H81" s="14"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2">
         <v>14</v>
@@ -4962,7 +4961,7 @@
       <c r="B118" s="3">
         <v>43585</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="14" t="s">
         <v>148</v>
       </c>
       <c r="E118" s="2">
@@ -5014,8 +5013,8 @@
       <c r="B120" s="3">
         <v>43585</v>
       </c>
-      <c r="C120" s="13" t="s">
-        <v>148</v>
+      <c r="C120" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="E120" s="2">
         <v>0.1149</v>
@@ -5031,7 +5030,9 @@
       <c r="J120" s="2">
         <v>21</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
@@ -5041,7 +5042,7 @@
         <v>43585</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="E121" s="2">
         <v>0.1147</v>
@@ -5057,7 +5058,9 @@
       <c r="J121" s="2">
         <v>21</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
@@ -6628,9 +6631,7 @@
       <c r="G181" s="2">
         <v>100</v>
       </c>
-      <c r="H181" s="13">
-        <v>275</v>
-      </c>
+      <c r="H181" s="14"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2">
         <v>14</v>
@@ -6656,9 +6657,7 @@
       <c r="G182" s="2">
         <v>100</v>
       </c>
-      <c r="H182" s="13">
-        <v>275</v>
-      </c>
+      <c r="H182" s="14"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2">
         <v>14</v>
@@ -6684,9 +6683,7 @@
       <c r="G183" s="2">
         <v>100</v>
       </c>
-      <c r="H183" s="13">
-        <v>325</v>
-      </c>
+      <c r="H183" s="14"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2">
         <v>14</v>
@@ -6712,9 +6709,7 @@
       <c r="G184" s="2">
         <v>100</v>
       </c>
-      <c r="H184" s="13">
-        <v>325</v>
-      </c>
+      <c r="H184" s="14"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2">
         <v>14</v>
@@ -6740,9 +6735,7 @@
       <c r="G185" s="2">
         <v>100</v>
       </c>
-      <c r="H185" s="13">
-        <v>335</v>
-      </c>
+      <c r="H185" s="14"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2">
         <v>14</v>
@@ -6768,9 +6761,7 @@
       <c r="G186" s="2">
         <v>100</v>
       </c>
-      <c r="H186" s="13">
-        <v>335</v>
-      </c>
+      <c r="H186" s="14"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2">
         <v>14</v>
@@ -6796,9 +6787,7 @@
       <c r="G187" s="2">
         <v>100</v>
       </c>
-      <c r="H187" s="13">
-        <v>330</v>
-      </c>
+      <c r="H187" s="14"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2">
         <v>13</v>
@@ -6824,9 +6813,7 @@
       <c r="G188" s="2">
         <v>100</v>
       </c>
-      <c r="H188" s="13">
-        <v>330</v>
-      </c>
+      <c r="H188" s="14"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2">
         <v>13</v>
@@ -6852,9 +6839,7 @@
       <c r="G189" s="2">
         <v>100</v>
       </c>
-      <c r="H189" s="13">
-        <v>325</v>
-      </c>
+      <c r="H189" s="14"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2">
         <v>13</v>
@@ -6880,9 +6865,7 @@
       <c r="G190" s="2">
         <v>100</v>
       </c>
-      <c r="H190" s="13">
-        <v>325</v>
-      </c>
+      <c r="H190" s="14"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2">
         <v>13</v>
@@ -6908,9 +6891,7 @@
       <c r="G191" s="2">
         <v>100</v>
       </c>
-      <c r="H191" s="13">
-        <v>325</v>
-      </c>
+      <c r="H191" s="14"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2">
         <v>13</v>
@@ -6936,9 +6917,7 @@
       <c r="G192" s="2">
         <v>100</v>
       </c>
-      <c r="H192" s="13">
-        <v>325</v>
-      </c>
+      <c r="H192" s="14"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2">
         <v>13</v>
@@ -6964,9 +6943,7 @@
       <c r="G193" s="2">
         <v>100</v>
       </c>
-      <c r="H193" s="13">
-        <v>350</v>
-      </c>
+      <c r="H193" s="14"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2">
         <v>13</v>
@@ -6992,9 +6969,7 @@
       <c r="G194" s="2">
         <v>100</v>
       </c>
-      <c r="H194" s="13">
-        <v>350</v>
-      </c>
+      <c r="H194" s="14"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2">
         <v>13</v>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BB907-27F9-9741-A4EA-677D0CD4A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CF062-D656-5744-AC8F-3CBF56944A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,7 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1494,7 +1494,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1852,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1923,7 +1922,10 @@
         <v>200</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <f>F2-E2</f>
+        <v>1.1300000000000004E-2</v>
+      </c>
       <c r="J2" s="2">
         <v>14</v>
       </c>
@@ -1949,7 +1951,10 @@
         <v>200</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I66" si="0">F3-E3</f>
+        <v>1.4700000000000005E-2</v>
+      </c>
       <c r="J3" s="2">
         <v>14</v>
       </c>
@@ -1975,7 +1980,10 @@
         <v>100</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999996E-2</v>
+      </c>
       <c r="J4" s="2">
         <v>14</v>
       </c>
@@ -2001,6 +2009,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999995E-2</v>
+      </c>
       <c r="J5" s="2">
         <v>14</v>
       </c>
@@ -2023,6 +2035,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2">
         <v>14</v>
       </c>
@@ -2047,7 +2060,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.900000000000006E-3</v>
+      </c>
       <c r="J7" s="2">
         <v>14</v>
       </c>
@@ -2073,7 +2089,10 @@
         <v>100</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000077E-3</v>
+      </c>
       <c r="J8" s="2">
         <v>14</v>
       </c>
@@ -2099,7 +2118,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000042E-3</v>
+      </c>
       <c r="J9" s="2">
         <v>14</v>
       </c>
@@ -2125,6 +2147,10 @@
         <v>200</v>
       </c>
       <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999985E-3</v>
+      </c>
       <c r="J10" s="2">
         <v>14</v>
       </c>
@@ -2149,6 +2175,10 @@
         <v>200</v>
       </c>
       <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000067E-3</v>
+      </c>
       <c r="J11" s="2">
         <v>14</v>
       </c>
@@ -2173,6 +2203,10 @@
         <v>200</v>
       </c>
       <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999895E-3</v>
+      </c>
       <c r="J12" s="2">
         <v>14</v>
       </c>
@@ -2197,6 +2231,10 @@
         <v>200</v>
       </c>
       <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000034E-3</v>
+      </c>
       <c r="J13" s="2">
         <v>14</v>
       </c>
@@ -2221,7 +2259,10 @@
         <v>200</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000023E-3</v>
+      </c>
       <c r="J14" s="2">
         <v>14</v>
       </c>
@@ -2247,7 +2288,10 @@
         <v>200</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999946E-3</v>
+      </c>
       <c r="J15" s="2">
         <v>14</v>
       </c>
@@ -2273,7 +2317,10 @@
         <v>200</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="J16" s="2">
         <v>14</v>
       </c>
@@ -2299,7 +2346,10 @@
         <v>200</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0099999999999998E-2</v>
+      </c>
       <c r="J17" s="2">
         <v>14</v>
       </c>
@@ -2325,7 +2375,10 @@
         <v>300</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="J18" s="2">
         <v>14</v>
       </c>
@@ -2351,7 +2404,10 @@
         <v>300</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999879E-3</v>
+      </c>
       <c r="J19" s="2">
         <v>14</v>
       </c>
@@ -2377,6 +2433,10 @@
         <v>300</v>
       </c>
       <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000056E-3</v>
+      </c>
       <c r="J20" s="2">
         <v>14</v>
       </c>
@@ -2401,6 +2461,10 @@
         <v>300</v>
       </c>
       <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999974E-3</v>
+      </c>
       <c r="J21" s="2">
         <v>14</v>
       </c>
@@ -2425,7 +2489,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
       <c r="J22" s="2">
         <v>14</v>
       </c>
@@ -2451,7 +2518,10 @@
         <v>200</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
       <c r="J23" s="2">
         <v>14</v>
       </c>
@@ -2477,7 +2547,10 @@
         <v>200</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
       <c r="J24" s="2">
         <v>14</v>
       </c>
@@ -2505,7 +2578,10 @@
         <v>200</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>9.099999999999997E-3</v>
+      </c>
       <c r="J25" s="2">
         <v>14</v>
       </c>
@@ -2531,7 +2607,10 @@
         <v>205</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999956E-3</v>
+      </c>
       <c r="J26" s="2">
         <v>14</v>
       </c>
@@ -2559,7 +2638,10 @@
         <v>200</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
       <c r="J27" s="2">
         <v>14</v>
       </c>
@@ -2585,7 +2667,10 @@
         <v>205</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943E-3</v>
+      </c>
       <c r="J28" s="2">
         <v>14</v>
       </c>
@@ -2610,6 +2695,10 @@
       <c r="G29" s="2">
         <v>205</v>
       </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
       <c r="J29" s="2">
         <v>14</v>
       </c>
@@ -2631,6 +2720,7 @@
       <c r="G30" s="2">
         <v>200</v>
       </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2">
         <v>14</v>
       </c>
@@ -2652,6 +2742,7 @@
       <c r="G31" s="2">
         <v>200</v>
       </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2">
         <v>14</v>
       </c>
@@ -2673,6 +2764,7 @@
       <c r="G32" s="2">
         <v>190</v>
       </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2">
         <v>14</v>
       </c>
@@ -2697,7 +2789,10 @@
         <v>200</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999996E-2</v>
+      </c>
       <c r="J33" s="2">
         <v>14</v>
       </c>
@@ -2723,7 +2818,10 @@
         <v>300</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6000000000000069E-3</v>
+      </c>
       <c r="J34" s="2">
         <v>7</v>
       </c>
@@ -2749,7 +2847,10 @@
         <v>300</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.599999999999993E-3</v>
+      </c>
       <c r="J35" s="2">
         <v>7</v>
       </c>
@@ -2777,7 +2878,10 @@
         <v>300</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.599999999999993E-3</v>
+      </c>
       <c r="J36" s="2">
         <v>7</v>
       </c>
@@ -2803,7 +2907,10 @@
         <v>300</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000016E-3</v>
+      </c>
       <c r="J37" s="2">
         <v>7</v>
       </c>
@@ -2829,7 +2936,10 @@
         <v>300</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000009E-2</v>
+      </c>
       <c r="J38" s="2">
         <v>7</v>
       </c>
@@ -2855,7 +2965,10 @@
         <v>300</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1800000000000005E-2</v>
+      </c>
       <c r="J39" s="2">
         <v>7</v>
       </c>
@@ -2881,6 +2994,10 @@
         <v>200</v>
       </c>
       <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7399999999999994E-2</v>
+      </c>
       <c r="J40" s="2">
         <v>7</v>
       </c>
@@ -2905,6 +3022,10 @@
         <v>200</v>
       </c>
       <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000018E-3</v>
+      </c>
       <c r="J41" s="2">
         <v>7</v>
       </c>
@@ -2929,6 +3050,10 @@
         <v>300</v>
       </c>
       <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5900000000000011E-2</v>
+      </c>
       <c r="J42" s="2">
         <v>21</v>
       </c>
@@ -2953,7 +3078,10 @@
         <v>300</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8100000000000005E-2</v>
+      </c>
       <c r="J43" s="2">
         <v>21</v>
       </c>
@@ -2979,7 +3107,10 @@
         <v>300</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001E-2</v>
+      </c>
       <c r="J44" s="2">
         <v>21</v>
       </c>
@@ -3004,7 +3135,10 @@
       <c r="G45" s="2">
         <v>300</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000012E-2</v>
+      </c>
       <c r="J45" s="2">
         <v>21</v>
       </c>
@@ -3030,7 +3164,10 @@
         <v>200</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7799999999999996E-2</v>
+      </c>
       <c r="J46" s="2">
         <v>21</v>
       </c>
@@ -3058,7 +3195,10 @@
         <v>200</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8299999999999997E-2</v>
+      </c>
       <c r="J47" s="2">
         <v>21</v>
       </c>
@@ -3084,7 +3224,10 @@
         <v>200</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.949999999999999E-2</v>
+      </c>
       <c r="J48" s="2">
         <v>21</v>
       </c>
@@ -3110,7 +3253,10 @@
         <v>200</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
       <c r="J49" s="2">
         <v>21</v>
       </c>
@@ -3138,7 +3284,10 @@
         <v>200</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3299999999999992E-2</v>
+      </c>
       <c r="J50" s="2">
         <v>14</v>
       </c>
@@ -3166,7 +3315,10 @@
         <v>200</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3700000000000004E-2</v>
+      </c>
       <c r="J51" s="2">
         <v>14</v>
       </c>
@@ -3192,7 +3344,10 @@
         <v>150</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4000000000000038E-3</v>
+      </c>
       <c r="J52" s="2">
         <v>14</v>
       </c>
@@ -3216,6 +3371,7 @@
         <v>150</v>
       </c>
       <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="2">
         <v>14</v>
       </c>
@@ -3239,7 +3395,10 @@
       <c r="G54" s="2">
         <v>150</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6399999999999998E-2</v>
+      </c>
       <c r="J54" s="2">
         <v>14</v>
       </c>
@@ -3266,7 +3425,10 @@
       <c r="G55" s="2">
         <v>150</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7200000000000007E-2</v>
+      </c>
       <c r="J55" s="2">
         <v>14</v>
       </c>
@@ -3291,6 +3453,10 @@
       <c r="G56" s="2">
         <v>200</v>
       </c>
+      <c r="I56" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8600000000000009E-2</v>
+      </c>
       <c r="J56" s="2">
         <v>14</v>
       </c>
@@ -3314,6 +3480,10 @@
       <c r="G57" s="2">
         <v>170</v>
       </c>
+      <c r="I57" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9100000000000001E-2</v>
+      </c>
       <c r="J57" s="2">
         <v>14</v>
       </c>
@@ -3338,7 +3508,10 @@
         <v>100</v>
       </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-3</v>
+      </c>
       <c r="J58" s="2">
         <v>14</v>
       </c>
@@ -3364,7 +3537,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999895E-3</v>
+      </c>
       <c r="J59" s="2">
         <v>14</v>
       </c>
@@ -3390,7 +3566,10 @@
         <v>100</v>
       </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999956E-3</v>
+      </c>
       <c r="J60" s="2">
         <v>14</v>
       </c>
@@ -3416,7 +3595,10 @@
         <v>100</v>
       </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="I61" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
       <c r="J61" s="2">
         <v>14</v>
       </c>
@@ -3442,7 +3624,10 @@
         <v>100</v>
       </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999974E-3</v>
+      </c>
       <c r="J62" s="2">
         <v>14</v>
       </c>
@@ -3468,7 +3653,10 @@
         <v>100</v>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="J63" s="2">
         <v>14</v>
       </c>
@@ -3494,7 +3682,10 @@
         <v>100</v>
       </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="I64" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5999999999999974E-3</v>
+      </c>
       <c r="J64" s="2">
         <v>14</v>
       </c>
@@ -3520,7 +3711,10 @@
         <v>100</v>
       </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="I65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1699999999999988E-2</v>
+      </c>
       <c r="J65" s="2">
         <v>14</v>
       </c>
@@ -3546,7 +3740,10 @@
         <v>100</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999976E-3</v>
+      </c>
       <c r="J66" s="2">
         <v>14</v>
       </c>
@@ -3572,7 +3769,10 @@
         <v>100</v>
       </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I130" si="1">F67-E67</f>
+        <v>7.4000000000000038E-3</v>
+      </c>
       <c r="J67" s="2">
         <v>14</v>
       </c>
@@ -3598,7 +3798,10 @@
         <v>100</v>
       </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="I68" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000038E-3</v>
+      </c>
       <c r="J68" s="2">
         <v>14</v>
       </c>
@@ -3624,7 +3827,10 @@
         <v>100</v>
       </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9000000000000025E-3</v>
+      </c>
       <c r="J69" s="2">
         <v>14</v>
       </c>
@@ -3650,7 +3856,10 @@
         <v>50</v>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5099999999999988E-2</v>
+      </c>
       <c r="J70" s="2">
         <v>14</v>
       </c>
@@ -3676,7 +3885,10 @@
         <v>50</v>
       </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2699999999999989E-2</v>
+      </c>
       <c r="J71" s="2">
         <v>14</v>
       </c>
@@ -3702,7 +3914,10 @@
         <v>50</v>
       </c>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="I72" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2700000000000003E-2</v>
+      </c>
       <c r="J72" s="2">
         <v>14</v>
       </c>
@@ -3728,7 +3943,10 @@
         <v>50</v>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="I73" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000005E-2</v>
+      </c>
       <c r="J73" s="2">
         <v>14</v>
       </c>
@@ -3753,8 +3971,11 @@
       <c r="G74" s="2">
         <v>100</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000055E-3</v>
+      </c>
       <c r="J74" s="2">
         <v>14</v>
       </c>
@@ -3767,7 +3988,7 @@
       <c r="B75" s="3">
         <v>43710</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E75" s="2">
@@ -3779,8 +4000,11 @@
       <c r="G75" s="2">
         <v>100</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
       <c r="J75" s="2">
         <v>14</v>
       </c>
@@ -3805,8 +4029,11 @@
       <c r="G76" s="2">
         <v>100</v>
       </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000007E-3</v>
+      </c>
       <c r="J76" s="2">
         <v>14</v>
       </c>
@@ -3819,7 +4046,7 @@
       <c r="B77" s="3">
         <v>43710</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E77" s="2">
@@ -3831,8 +4058,11 @@
       <c r="G77" s="2">
         <v>100</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
       <c r="J77" s="2">
         <v>14</v>
       </c>
@@ -3855,8 +4085,11 @@
       <c r="G78" s="2">
         <v>100</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2">
+        <f t="shared" si="1"/>
+        <v>5.400000000000002E-3</v>
+      </c>
       <c r="J78" s="2">
         <v>14</v>
       </c>
@@ -3879,8 +4112,11 @@
       <c r="G79" s="2">
         <v>100</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
       <c r="J79" s="2">
         <v>14</v>
       </c>
@@ -3903,8 +4139,11 @@
       <c r="G80" s="2">
         <v>100</v>
       </c>
-      <c r="H80" s="14"/>
-      <c r="I80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
       <c r="J80" s="2">
         <v>14</v>
       </c>
@@ -3927,8 +4166,11 @@
       <c r="G81" s="2">
         <v>100</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000013E-2</v>
+      </c>
       <c r="J81" s="2">
         <v>14</v>
       </c>
@@ -3956,7 +4198,10 @@
       <c r="H82" s="2">
         <v>1510</v>
       </c>
-      <c r="I82" s="2"/>
+      <c r="I82" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999928E-3</v>
+      </c>
       <c r="J82" s="2">
         <v>25</v>
       </c>
@@ -3984,7 +4229,10 @@
       <c r="H83" s="2">
         <v>1510</v>
       </c>
-      <c r="I83" s="2"/>
+      <c r="I83" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999992E-3</v>
+      </c>
       <c r="J83" s="2">
         <v>25</v>
       </c>
@@ -4012,7 +4260,10 @@
       <c r="H84" s="2">
         <v>1580</v>
       </c>
-      <c r="I84" s="2"/>
+      <c r="I84" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
       <c r="J84" s="2">
         <v>25</v>
       </c>
@@ -4040,7 +4291,10 @@
       <c r="H85" s="2">
         <v>1580</v>
       </c>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999978E-3</v>
+      </c>
       <c r="J85" s="2">
         <v>25</v>
       </c>
@@ -4068,7 +4322,10 @@
       <c r="H86" s="2">
         <v>1760</v>
       </c>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000005E-2</v>
+      </c>
       <c r="J86" s="2">
         <v>25</v>
       </c>
@@ -4096,7 +4353,10 @@
       <c r="H87" s="2">
         <v>1760</v>
       </c>
-      <c r="I87" s="2"/>
+      <c r="I87" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3100000000000014E-2</v>
+      </c>
       <c r="J87" s="2">
         <v>25</v>
       </c>
@@ -4124,7 +4384,10 @@
       <c r="H88" s="2">
         <v>1740</v>
       </c>
-      <c r="I88" s="2"/>
+      <c r="I88" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0100000000000012E-2</v>
+      </c>
       <c r="J88" s="2">
         <v>25</v>
       </c>
@@ -4152,7 +4415,10 @@
       <c r="H89" s="2">
         <v>1740</v>
       </c>
-      <c r="I89" s="2"/>
+      <c r="I89" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6399999999999998E-2</v>
+      </c>
       <c r="J89" s="2">
         <v>25</v>
       </c>
@@ -4180,7 +4446,10 @@
       <c r="H90" s="2">
         <v>1650</v>
       </c>
-      <c r="I90" s="2"/>
+      <c r="I90" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000007E-3</v>
+      </c>
       <c r="J90" s="2">
         <v>14</v>
       </c>
@@ -4208,7 +4477,10 @@
       <c r="H91" s="2">
         <v>1650</v>
       </c>
-      <c r="I91" s="2"/>
+      <c r="I91" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7000000000000097E-3</v>
+      </c>
       <c r="J91" s="2">
         <v>14</v>
       </c>
@@ -4236,7 +4508,10 @@
       <c r="H92" s="2">
         <v>1650</v>
       </c>
-      <c r="I92" s="2"/>
+      <c r="I92" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999987E-3</v>
+      </c>
       <c r="J92" s="2">
         <v>14</v>
       </c>
@@ -4264,7 +4539,10 @@
       <c r="H93" s="2">
         <v>1650</v>
       </c>
-      <c r="I93" s="2"/>
+      <c r="I93" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999987E-3</v>
+      </c>
       <c r="J93" s="2">
         <v>14</v>
       </c>
@@ -4292,7 +4570,10 @@
       <c r="H94" s="2">
         <v>1640</v>
       </c>
-      <c r="I94" s="2"/>
+      <c r="I94" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999913E-3</v>
+      </c>
       <c r="J94" s="2">
         <v>14</v>
       </c>
@@ -4320,7 +4601,10 @@
       <c r="H95" s="2">
         <v>1640</v>
       </c>
-      <c r="I95" s="2"/>
+      <c r="I95" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="J95" s="2">
         <v>14</v>
       </c>
@@ -4348,7 +4632,10 @@
       <c r="H96" s="2">
         <v>1670</v>
       </c>
-      <c r="I96" s="2"/>
+      <c r="I96" s="2">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
       <c r="J96" s="2">
         <v>14</v>
       </c>
@@ -4376,7 +4663,10 @@
       <c r="H97" s="2">
         <v>1670</v>
       </c>
-      <c r="I97" s="2"/>
+      <c r="I97" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1299999999999991E-2</v>
+      </c>
       <c r="J97" s="2">
         <v>14</v>
       </c>
@@ -4404,7 +4694,10 @@
       <c r="H98" s="2">
         <v>1480</v>
       </c>
-      <c r="I98" s="2"/>
+      <c r="I98" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000007E-2</v>
+      </c>
       <c r="J98" s="2">
         <v>12</v>
       </c>
@@ -4432,7 +4725,10 @@
       <c r="H99" s="2">
         <v>1480</v>
       </c>
-      <c r="I99" s="2"/>
+      <c r="I99" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000016E-3</v>
+      </c>
       <c r="J99" s="2">
         <v>12</v>
       </c>
@@ -4460,7 +4756,10 @@
       <c r="H100" s="2">
         <v>1510</v>
       </c>
-      <c r="I100" s="2"/>
+      <c r="I100" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000016E-3</v>
+      </c>
       <c r="J100" s="2">
         <v>12</v>
       </c>
@@ -4488,7 +4787,10 @@
       <c r="H101" s="2">
         <v>1510</v>
       </c>
-      <c r="I101" s="2"/>
+      <c r="I101" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
       <c r="J101" s="2">
         <v>12</v>
       </c>
@@ -4516,7 +4818,10 @@
       <c r="H102" s="2">
         <v>1605</v>
       </c>
-      <c r="I102" s="2"/>
+      <c r="I102" s="2">
+        <f t="shared" si="1"/>
+        <v>2.23E-2</v>
+      </c>
       <c r="J102" s="2">
         <v>12</v>
       </c>
@@ -4544,7 +4849,10 @@
       <c r="H103" s="2">
         <v>1605</v>
       </c>
-      <c r="I103" s="2"/>
+      <c r="I103" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="J103" s="2">
         <v>12</v>
       </c>
@@ -4574,7 +4882,10 @@
       <c r="H104" s="2">
         <v>1685</v>
       </c>
-      <c r="I104" s="2"/>
+      <c r="I104" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
       <c r="J104" s="2">
         <v>12</v>
       </c>
@@ -4602,7 +4913,10 @@
       <c r="H105" s="2">
         <v>1685</v>
       </c>
-      <c r="I105" s="2"/>
+      <c r="I105" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000002E-2</v>
+      </c>
       <c r="J105" s="2">
         <v>12</v>
       </c>
@@ -4630,7 +4944,10 @@
       <c r="H106" s="2">
         <v>1215</v>
       </c>
-      <c r="I106" s="2"/>
+      <c r="I106" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000014E-3</v>
+      </c>
       <c r="J106" s="2">
         <v>16</v>
       </c>
@@ -4660,7 +4977,10 @@
       <c r="H107" s="2">
         <v>1215</v>
       </c>
-      <c r="I107" s="2"/>
+      <c r="I107" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
       <c r="J107" s="2">
         <v>16</v>
       </c>
@@ -4690,7 +5010,10 @@
       <c r="H108" s="2">
         <v>1445</v>
       </c>
-      <c r="I108" s="2"/>
+      <c r="I108" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1300000000000004E-2</v>
+      </c>
       <c r="J108" s="2">
         <v>16</v>
       </c>
@@ -4720,7 +5043,10 @@
       <c r="H109" s="2">
         <v>1445</v>
       </c>
-      <c r="I109" s="2"/>
+      <c r="I109" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2200000000000016E-2</v>
+      </c>
       <c r="J109" s="2">
         <v>16</v>
       </c>
@@ -4750,7 +5076,10 @@
       <c r="H110" s="2">
         <v>1160</v>
       </c>
-      <c r="I110" s="2"/>
+      <c r="I110" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003E-2</v>
+      </c>
       <c r="J110" s="2">
         <v>16</v>
       </c>
@@ -4780,7 +5109,10 @@
       <c r="H111" s="2">
         <v>1160</v>
       </c>
-      <c r="I111" s="2"/>
+      <c r="I111" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000005E-2</v>
+      </c>
       <c r="J111" s="2">
         <v>16</v>
       </c>
@@ -4810,7 +5142,10 @@
       <c r="H112" s="2">
         <v>1640</v>
       </c>
-      <c r="I112" s="2"/>
+      <c r="I112" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000018E-3</v>
+      </c>
       <c r="J112" s="2">
         <v>16</v>
       </c>
@@ -4840,7 +5175,10 @@
       <c r="H113" s="2">
         <v>1640</v>
       </c>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999913E-3</v>
+      </c>
       <c r="J113" s="2">
         <v>16</v>
       </c>
@@ -4868,7 +5206,10 @@
         <v>200</v>
       </c>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
+      <c r="I114" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999995E-2</v>
+      </c>
       <c r="J114" s="2">
         <v>21</v>
       </c>
@@ -4896,7 +5237,10 @@
         <v>100</v>
       </c>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
+      <c r="I115" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8999999999999913E-3</v>
+      </c>
       <c r="J115" s="2">
         <v>21</v>
       </c>
@@ -4922,7 +5266,10 @@
         <v>100</v>
       </c>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
       <c r="J116" s="2">
         <v>21</v>
       </c>
@@ -4948,7 +5295,10 @@
         <v>100</v>
       </c>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
       <c r="J117" s="2">
         <v>21</v>
       </c>
@@ -4961,7 +5311,7 @@
       <c r="B118" s="3">
         <v>43585</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E118" s="2">
@@ -4974,7 +5324,10 @@
         <v>100</v>
       </c>
       <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+      <c r="I118" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
       <c r="J118" s="2">
         <v>21</v>
       </c>
@@ -5000,7 +5353,10 @@
         <v>100</v>
       </c>
       <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
+      <c r="I119" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999908E-3</v>
+      </c>
       <c r="J119" s="2">
         <v>21</v>
       </c>
@@ -5013,7 +5369,7 @@
       <c r="B120" s="3">
         <v>43585</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="2" t="s">
         <v>276</v>
       </c>
       <c r="E120" s="2">
@@ -5026,7 +5382,10 @@
         <v>100</v>
       </c>
       <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
+      <c r="I120" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
       <c r="J120" s="2">
         <v>21</v>
       </c>
@@ -5054,7 +5413,10 @@
         <v>100</v>
       </c>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+      <c r="I121" s="2">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000032E-3</v>
+      </c>
       <c r="J121" s="2">
         <v>21</v>
       </c>
@@ -5082,7 +5444,10 @@
         <v>400</v>
       </c>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
+      <c r="I122" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2399999999999994E-2</v>
+      </c>
       <c r="J122" s="2">
         <v>17</v>
       </c>
@@ -5108,7 +5473,10 @@
         <v>400</v>
       </c>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
+      <c r="I123" s="2">
+        <f t="shared" si="1"/>
+        <v>1.369999999999999E-2</v>
+      </c>
       <c r="J123" s="2">
         <v>17</v>
       </c>
@@ -5134,7 +5502,10 @@
         <v>300</v>
       </c>
       <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+      <c r="I124" s="2">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
       <c r="J124" s="2">
         <v>17</v>
       </c>
@@ -5160,7 +5531,10 @@
         <v>300</v>
       </c>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
+      <c r="I125" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
       <c r="J125" s="2">
         <v>17</v>
       </c>
@@ -5186,7 +5560,10 @@
         <v>200</v>
       </c>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
+      <c r="I126" s="2">
+        <f t="shared" si="1"/>
+        <v>1.490000000000001E-2</v>
+      </c>
       <c r="J126" s="2">
         <v>17</v>
       </c>
@@ -5212,7 +5589,10 @@
         <v>200</v>
       </c>
       <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+      <c r="I127" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
       <c r="J127" s="2">
         <v>17</v>
       </c>
@@ -5238,7 +5618,10 @@
         <v>200</v>
       </c>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+      <c r="I128" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000027E-3</v>
+      </c>
       <c r="J128" s="2">
         <v>17</v>
       </c>
@@ -5264,7 +5647,10 @@
         <v>200</v>
       </c>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
+      <c r="I129" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000002E-2</v>
+      </c>
       <c r="J129" s="2">
         <v>17</v>
       </c>
@@ -5314,7 +5700,10 @@
         <v>300</v>
       </c>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
+      <c r="I131" s="2">
+        <f t="shared" ref="I131:I194" si="2">F131-E131</f>
+        <v>9.8000000000000032E-3</v>
+      </c>
       <c r="J131" s="2">
         <v>14</v>
       </c>
@@ -5340,7 +5729,10 @@
         <v>300</v>
       </c>
       <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
+      <c r="I132" s="2">
+        <f t="shared" si="2"/>
+        <v>6.5999999999999948E-3</v>
+      </c>
       <c r="J132" s="2">
         <v>14</v>
       </c>
@@ -5368,7 +5760,10 @@
         <v>300</v>
       </c>
       <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
+      <c r="I133" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8000000000000014E-3</v>
+      </c>
       <c r="J133" s="2">
         <v>14</v>
       </c>
@@ -5418,7 +5813,10 @@
         <v>200</v>
       </c>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="I135" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0200000000000015E-2</v>
+      </c>
       <c r="J135" s="2">
         <v>14</v>
       </c>
@@ -5444,7 +5842,10 @@
         <v>200</v>
       </c>
       <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
+      <c r="I136" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1700000000000002E-2</v>
+      </c>
       <c r="J136" s="2">
         <v>14</v>
       </c>
@@ -5470,7 +5871,10 @@
         <v>200</v>
       </c>
       <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
+      <c r="I137" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1300000000000004E-2</v>
+      </c>
       <c r="J137" s="2">
         <v>14</v>
       </c>
@@ -5498,7 +5902,10 @@
         <v>400</v>
       </c>
       <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
+      <c r="I138" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4200000000000004E-2</v>
+      </c>
       <c r="J138" s="2">
         <v>14</v>
       </c>
@@ -5524,7 +5931,10 @@
         <v>400</v>
       </c>
       <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
+      <c r="I139" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7100000000000018E-2</v>
+      </c>
       <c r="J139" s="2">
         <v>14</v>
       </c>
@@ -5550,7 +5960,10 @@
         <v>300</v>
       </c>
       <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
+      <c r="I140" s="2">
+        <f t="shared" si="2"/>
+        <v>9.999999999999995E-3</v>
+      </c>
       <c r="J140" s="2">
         <v>14</v>
       </c>
@@ -5576,7 +5989,10 @@
         <v>300</v>
       </c>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
+      <c r="I141" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0399999999999993E-2</v>
+      </c>
       <c r="J141" s="2">
         <v>14</v>
       </c>
@@ -5602,7 +6018,10 @@
         <v>200</v>
       </c>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
+      <c r="I142" s="2">
+        <f t="shared" si="2"/>
+        <v>1.55E-2</v>
+      </c>
       <c r="J142" s="2">
         <v>14</v>
       </c>
@@ -5628,7 +6047,10 @@
         <v>200</v>
       </c>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+      <c r="I143" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000006E-2</v>
+      </c>
       <c r="J143" s="2">
         <v>14</v>
       </c>
@@ -5654,7 +6076,10 @@
         <v>200</v>
       </c>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
+      <c r="I144" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5699999999999992E-2</v>
+      </c>
       <c r="J144" s="2">
         <v>14</v>
       </c>
@@ -5680,7 +6105,10 @@
         <v>200</v>
       </c>
       <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+      <c r="I145" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3499999999999998E-2</v>
+      </c>
       <c r="J145" s="2">
         <v>14</v>
       </c>
@@ -5706,7 +6134,10 @@
         <v>300</v>
       </c>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000031E-3</v>
+      </c>
       <c r="J146" s="2">
         <v>7</v>
       </c>
@@ -5732,7 +6163,10 @@
         <v>300</v>
       </c>
       <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
+      <c r="I147" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000011E-3</v>
+      </c>
       <c r="J147" s="2">
         <v>7</v>
       </c>
@@ -5760,7 +6194,10 @@
         <v>300</v>
       </c>
       <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="I148" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
       <c r="J148" s="2">
         <v>7</v>
       </c>
@@ -5786,7 +6223,10 @@
         <v>300</v>
       </c>
       <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
+      <c r="I149" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999897E-3</v>
+      </c>
       <c r="J149" s="2">
         <v>7</v>
       </c>
@@ -5812,7 +6252,10 @@
         <v>250</v>
       </c>
       <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
+      <c r="I150" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8500000000000016E-2</v>
+      </c>
       <c r="J150" s="2">
         <v>7</v>
       </c>
@@ -5840,7 +6283,10 @@
         <v>250</v>
       </c>
       <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="I151" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8799999999999997E-2</v>
+      </c>
       <c r="J151" s="2">
         <v>7</v>
       </c>
@@ -5866,7 +6312,10 @@
         <v>200</v>
       </c>
       <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
+      <c r="I152" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999928E-3</v>
+      </c>
       <c r="J152" s="2">
         <v>7</v>
       </c>
@@ -5892,7 +6341,10 @@
         <v>200</v>
       </c>
       <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
+      <c r="I153" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
       <c r="J153" s="2">
         <v>7</v>
       </c>
@@ -5920,7 +6372,10 @@
         <v>300</v>
       </c>
       <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="I154" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999986E-2</v>
+      </c>
       <c r="J154" s="2">
         <v>21</v>
       </c>
@@ -5946,7 +6401,10 @@
         <v>300</v>
       </c>
       <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="I155" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6199999999999992E-2</v>
+      </c>
       <c r="J155" s="2">
         <v>21</v>
       </c>
@@ -5972,7 +6430,10 @@
         <v>300</v>
       </c>
       <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
+      <c r="I156" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2899999999999995E-2</v>
+      </c>
       <c r="J156" s="2">
         <v>21</v>
       </c>
@@ -5998,7 +6459,10 @@
         <v>300</v>
       </c>
       <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="I157" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2799999999999992E-2</v>
+      </c>
       <c r="J157" s="2">
         <v>21</v>
       </c>
@@ -6024,7 +6488,10 @@
         <v>200</v>
       </c>
       <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="I158" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000007E-2</v>
+      </c>
       <c r="J158" s="2">
         <v>21</v>
       </c>
@@ -6074,7 +6541,10 @@
         <v>200</v>
       </c>
       <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
+      <c r="I160" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0400000000000001E-2</v>
+      </c>
       <c r="J160" s="2">
         <v>21</v>
       </c>
@@ -6100,7 +6570,10 @@
         <v>200</v>
       </c>
       <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
+      <c r="I161" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5699999999999987E-2</v>
+      </c>
       <c r="J161" s="2">
         <v>21</v>
       </c>
@@ -6178,7 +6651,10 @@
         <v>150</v>
       </c>
       <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="I164" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
       <c r="J164" s="2">
         <v>14</v>
       </c>
@@ -6206,7 +6682,10 @@
         <v>150</v>
       </c>
       <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
+      <c r="I165" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="J165" s="2">
         <v>14</v>
       </c>
@@ -6234,7 +6713,10 @@
         <v>150</v>
       </c>
       <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
+      <c r="I166" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8700000000000008E-2</v>
+      </c>
       <c r="J166" s="2">
         <v>14</v>
       </c>
@@ -6262,7 +6744,10 @@
         <v>150</v>
       </c>
       <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
+      <c r="I167" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000017E-2</v>
+      </c>
       <c r="J167" s="2">
         <v>14</v>
       </c>
@@ -6290,7 +6775,10 @@
         <v>150</v>
       </c>
       <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
+      <c r="I168" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0900000000000007E-2</v>
+      </c>
       <c r="J168" s="2">
         <v>14</v>
       </c>
@@ -6318,7 +6806,10 @@
         <v>110</v>
       </c>
       <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="I169" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000014E-2</v>
+      </c>
       <c r="J169" s="2">
         <v>14</v>
       </c>
@@ -6346,7 +6837,10 @@
         <v>150</v>
       </c>
       <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
+      <c r="I170" s="2">
+        <f t="shared" si="2"/>
+        <v>1.490000000000001E-2</v>
+      </c>
       <c r="J170" s="2">
         <v>14</v>
       </c>
@@ -6374,7 +6868,10 @@
         <v>100</v>
       </c>
       <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
+      <c r="I171" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5999999999999974E-3</v>
+      </c>
       <c r="J171" s="2">
         <v>14</v>
       </c>
@@ -6400,7 +6897,10 @@
         <v>100</v>
       </c>
       <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+      <c r="I172" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2000000000000137E-3</v>
+      </c>
       <c r="J172" s="2">
         <v>14</v>
       </c>
@@ -6426,7 +6926,10 @@
         <v>100</v>
       </c>
       <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
+      <c r="I173" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4000000000000047E-3</v>
+      </c>
       <c r="J173" s="2">
         <v>14</v>
       </c>
@@ -6452,7 +6955,10 @@
         <v>100</v>
       </c>
       <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
+      <c r="I174" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
       <c r="J174" s="2">
         <v>14</v>
       </c>
@@ -6478,7 +6984,10 @@
         <v>75</v>
       </c>
       <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="I175" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0900000000000007E-2</v>
+      </c>
       <c r="J175" s="2">
         <v>14</v>
       </c>
@@ -6528,7 +7037,10 @@
         <v>75</v>
       </c>
       <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
+      <c r="I177" s="2">
+        <f t="shared" si="2"/>
+        <v>9.999999999999995E-3</v>
+      </c>
       <c r="J177" s="2">
         <v>14</v>
       </c>
@@ -6554,7 +7066,10 @@
         <v>75</v>
       </c>
       <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
+      <c r="I178" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
       <c r="J178" s="2">
         <v>14</v>
       </c>
@@ -6580,7 +7095,10 @@
         <v>100</v>
       </c>
       <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
+      <c r="I179" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999987E-3</v>
+      </c>
       <c r="J179" s="2">
         <v>14</v>
       </c>
@@ -6606,7 +7124,10 @@
         <v>100</v>
       </c>
       <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
+      <c r="I180" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999897E-3</v>
+      </c>
       <c r="J180" s="2">
         <v>14</v>
       </c>
@@ -6631,8 +7152,11 @@
       <c r="G181" s="2">
         <v>100</v>
       </c>
-      <c r="H181" s="14"/>
-      <c r="I181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1799999999999991E-2</v>
+      </c>
       <c r="J181" s="2">
         <v>14</v>
       </c>
@@ -6657,8 +7181,11 @@
       <c r="G182" s="2">
         <v>100</v>
       </c>
-      <c r="H182" s="14"/>
-      <c r="I182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2">
+        <f t="shared" si="2"/>
+        <v>1.100000000000001E-2</v>
+      </c>
       <c r="J182" s="2">
         <v>14</v>
       </c>
@@ -6683,8 +7210,11 @@
       <c r="G183" s="2">
         <v>100</v>
       </c>
-      <c r="H183" s="14"/>
-      <c r="I183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999954E-3</v>
+      </c>
       <c r="J183" s="2">
         <v>14</v>
       </c>
@@ -6709,8 +7239,11 @@
       <c r="G184" s="2">
         <v>100</v>
       </c>
-      <c r="H184" s="14"/>
-      <c r="I184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2">
+        <f t="shared" si="2"/>
+        <v>5.499999999999991E-3</v>
+      </c>
       <c r="J184" s="2">
         <v>14</v>
       </c>
@@ -6735,8 +7268,11 @@
       <c r="G185" s="2">
         <v>100</v>
       </c>
-      <c r="H185" s="14"/>
-      <c r="I185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1099999999999999E-2</v>
+      </c>
       <c r="J185" s="2">
         <v>14</v>
       </c>
@@ -6761,8 +7297,11 @@
       <c r="G186" s="2">
         <v>100</v>
       </c>
-      <c r="H186" s="14"/>
-      <c r="I186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0200000000000001E-2</v>
+      </c>
       <c r="J186" s="2">
         <v>14</v>
       </c>
@@ -6787,8 +7326,11 @@
       <c r="G187" s="2">
         <v>100</v>
       </c>
-      <c r="H187" s="14"/>
-      <c r="I187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
       <c r="J187" s="2">
         <v>13</v>
       </c>
@@ -6813,8 +7355,11 @@
       <c r="G188" s="2">
         <v>100</v>
       </c>
-      <c r="H188" s="14"/>
-      <c r="I188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
       <c r="J188" s="2">
         <v>13</v>
       </c>
@@ -6839,8 +7384,11 @@
       <c r="G189" s="2">
         <v>100</v>
       </c>
-      <c r="H189" s="14"/>
-      <c r="I189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000064E-3</v>
+      </c>
       <c r="J189" s="2">
         <v>13</v>
       </c>
@@ -6865,8 +7413,11 @@
       <c r="G190" s="2">
         <v>100</v>
       </c>
-      <c r="H190" s="14"/>
-      <c r="I190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000093E-3</v>
+      </c>
       <c r="J190" s="2">
         <v>13</v>
       </c>
@@ -6891,8 +7442,11 @@
       <c r="G191" s="2">
         <v>100</v>
       </c>
-      <c r="H191" s="14"/>
-      <c r="I191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0899999999999993E-2</v>
+      </c>
       <c r="J191" s="2">
         <v>13</v>
       </c>
@@ -6917,8 +7471,11 @@
       <c r="G192" s="2">
         <v>100</v>
       </c>
-      <c r="H192" s="14"/>
-      <c r="I192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000073E-3</v>
+      </c>
       <c r="J192" s="2">
         <v>13</v>
       </c>
@@ -6943,8 +7500,11 @@
       <c r="G193" s="2">
         <v>100</v>
       </c>
-      <c r="H193" s="14"/>
-      <c r="I193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3300000000000006E-2</v>
+      </c>
       <c r="J193" s="2">
         <v>13</v>
       </c>
@@ -6969,8 +7529,11 @@
       <c r="G194" s="2">
         <v>100</v>
       </c>
-      <c r="H194" s="14"/>
-      <c r="I194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
       <c r="J194" s="2">
         <v>13</v>
       </c>
@@ -6998,7 +7561,10 @@
       <c r="H195" s="2">
         <v>1530</v>
       </c>
-      <c r="I195" s="2"/>
+      <c r="I195" s="2">
+        <f t="shared" ref="I195:I226" si="3">F195-E195</f>
+        <v>2.2000000000000075E-3</v>
+      </c>
       <c r="J195" s="2">
         <v>16</v>
       </c>
@@ -7028,7 +7594,10 @@
       <c r="H196" s="2">
         <v>1530</v>
       </c>
-      <c r="I196" s="2"/>
+      <c r="I196" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999888E-3</v>
+      </c>
       <c r="J196" s="2">
         <v>16</v>
       </c>
@@ -7056,7 +7625,10 @@
       <c r="H197" s="2">
         <v>1550</v>
       </c>
-      <c r="I197" s="2"/>
+      <c r="I197" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000079E-3</v>
+      </c>
       <c r="J197" s="2">
         <v>16</v>
       </c>
@@ -7084,7 +7656,10 @@
       <c r="H198" s="2">
         <v>1550</v>
       </c>
-      <c r="I198" s="2"/>
+      <c r="I198" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4999999999999892E-3</v>
+      </c>
       <c r="J198" s="2">
         <v>16</v>
       </c>
@@ -7112,7 +7687,10 @@
       <c r="H199" s="2">
         <v>1540</v>
       </c>
-      <c r="I199" s="2"/>
+      <c r="I199" s="2">
+        <f t="shared" si="3"/>
+        <v>8.0999999999999961E-3</v>
+      </c>
       <c r="J199" s="2">
         <v>16</v>
       </c>
@@ -7140,7 +7718,10 @@
       <c r="H200" s="2">
         <v>1540</v>
       </c>
-      <c r="I200" s="2"/>
+      <c r="I200" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4999999999999946E-3</v>
+      </c>
       <c r="J200" s="2">
         <v>16</v>
       </c>
@@ -7168,7 +7749,10 @@
       <c r="H201" s="2">
         <v>1395</v>
       </c>
-      <c r="I201" s="2"/>
+      <c r="I201" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999981E-3</v>
+      </c>
       <c r="J201" s="2">
         <v>16</v>
       </c>
@@ -7196,7 +7780,10 @@
       <c r="H202" s="2">
         <v>1395</v>
       </c>
-      <c r="I202" s="2"/>
+      <c r="I202" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0099999999999984E-2</v>
+      </c>
       <c r="J202" s="2">
         <v>16</v>
       </c>
@@ -7224,7 +7811,10 @@
       <c r="H203" s="2">
         <v>1470</v>
       </c>
-      <c r="I203" s="2"/>
+      <c r="I203" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999917E-3</v>
+      </c>
       <c r="J203" s="2">
         <v>14</v>
       </c>
@@ -7278,7 +7868,10 @@
       <c r="H205" s="2">
         <v>1360</v>
       </c>
-      <c r="I205" s="2"/>
+      <c r="I205" s="2">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
       <c r="J205" s="2">
         <v>14</v>
       </c>
@@ -7306,7 +7899,10 @@
       <c r="H206" s="2">
         <v>1360</v>
       </c>
-      <c r="I206" s="2"/>
+      <c r="I206" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1999999999999954E-3</v>
+      </c>
       <c r="J206" s="2">
         <v>14</v>
       </c>
@@ -7334,7 +7930,10 @@
       <c r="H207" s="2">
         <v>1550</v>
       </c>
-      <c r="I207" s="2"/>
+      <c r="I207" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2300000000000019E-2</v>
+      </c>
       <c r="J207" s="2">
         <v>14</v>
       </c>
@@ -7362,7 +7961,10 @@
       <c r="H208" s="2">
         <v>1550</v>
       </c>
-      <c r="I208" s="2"/>
+      <c r="I208" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0700000000000001E-2</v>
+      </c>
       <c r="J208" s="2">
         <v>14</v>
       </c>
@@ -7390,7 +7992,10 @@
       <c r="H209" s="2">
         <v>1575</v>
       </c>
-      <c r="I209" s="2"/>
+      <c r="I209" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
       <c r="J209" s="2">
         <v>14</v>
       </c>
@@ -7418,7 +8023,10 @@
       <c r="H210" s="2">
         <v>1575</v>
       </c>
-      <c r="I210" s="2"/>
+      <c r="I210" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5999999999999965E-3</v>
+      </c>
       <c r="J210" s="2">
         <v>14</v>
       </c>
@@ -7446,7 +8054,10 @@
       <c r="H211" s="2">
         <v>1700</v>
       </c>
-      <c r="I211" s="2"/>
+      <c r="I211" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0900000000000007E-2</v>
+      </c>
       <c r="J211" s="2">
         <v>14</v>
       </c>
@@ -7474,7 +8085,10 @@
       <c r="H212" s="2">
         <v>1700</v>
       </c>
-      <c r="I212" s="2"/>
+      <c r="I212" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0500000000000009E-2</v>
+      </c>
       <c r="J212" s="2">
         <v>14</v>
       </c>
@@ -7502,7 +8116,10 @@
       <c r="H213" s="2">
         <v>1620</v>
       </c>
-      <c r="I213" s="2"/>
+      <c r="I213" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4999999999999946E-3</v>
+      </c>
       <c r="J213" s="2">
         <v>14</v>
       </c>
@@ -7530,7 +8147,10 @@
       <c r="H214" s="2">
         <v>1620</v>
       </c>
-      <c r="I214" s="2"/>
+      <c r="I214" s="2">
+        <f t="shared" si="3"/>
+        <v>8.10000000000001E-3</v>
+      </c>
       <c r="J214" s="2">
         <v>14</v>
       </c>
@@ -7558,7 +8178,10 @@
       <c r="H215" s="2">
         <v>1620</v>
       </c>
-      <c r="I215" s="2"/>
+      <c r="I215" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000128E-3</v>
+      </c>
       <c r="J215" s="2">
         <v>14</v>
       </c>
@@ -7586,7 +8209,10 @@
       <c r="H216" s="2">
         <v>1620</v>
       </c>
-      <c r="I216" s="2"/>
+      <c r="I216" s="2">
+        <f t="shared" si="3"/>
+        <v>7.6999999999999985E-3</v>
+      </c>
       <c r="J216" s="2">
         <v>14</v>
       </c>
@@ -7614,7 +8240,10 @@
       <c r="H217" s="2">
         <v>1500</v>
       </c>
-      <c r="I217" s="2"/>
+      <c r="I217" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9000000000000051E-3</v>
+      </c>
       <c r="J217" s="2">
         <v>14</v>
       </c>
@@ -7642,7 +8271,10 @@
       <c r="H218" s="2">
         <v>1500</v>
       </c>
-      <c r="I218" s="2"/>
+      <c r="I218" s="2">
+        <f t="shared" si="3"/>
+        <v>9.099999999999997E-3</v>
+      </c>
       <c r="J218" s="2">
         <v>14</v>
       </c>
@@ -7670,7 +8302,10 @@
       <c r="H219" s="2">
         <v>1655</v>
       </c>
-      <c r="I219" s="2"/>
+      <c r="I219" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000007E-3</v>
+      </c>
       <c r="J219" s="2">
         <v>10</v>
       </c>
@@ -7698,7 +8333,10 @@
       <c r="H220" s="2">
         <v>1655</v>
       </c>
-      <c r="I220" s="2"/>
+      <c r="I220" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7000000000000097E-3</v>
+      </c>
       <c r="J220" s="2">
         <v>10</v>
       </c>
@@ -7726,7 +8364,10 @@
       <c r="H221" s="2">
         <v>1670</v>
       </c>
-      <c r="I221" s="2"/>
+      <c r="I221" s="2">
+        <f t="shared" si="3"/>
+        <v>4.500000000000004E-3</v>
+      </c>
       <c r="J221" s="2">
         <v>10</v>
       </c>
@@ -7754,7 +8395,10 @@
       <c r="H222" s="2">
         <v>1670</v>
       </c>
-      <c r="I222" s="2"/>
+      <c r="I222" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7999999999999978E-3</v>
+      </c>
       <c r="J222" s="2">
         <v>10</v>
       </c>
@@ -7782,7 +8426,10 @@
       <c r="H223" s="2">
         <v>1700</v>
       </c>
-      <c r="I223" s="2"/>
+      <c r="I223" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1099999999999999E-2</v>
+      </c>
       <c r="J223" s="2">
         <v>10</v>
       </c>
@@ -7810,7 +8457,10 @@
       <c r="H224" s="2">
         <v>1700</v>
       </c>
-      <c r="I224" s="2"/>
+      <c r="I224" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000007E-2</v>
+      </c>
       <c r="J224" s="2">
         <v>10</v>
       </c>
@@ -7838,7 +8488,10 @@
       <c r="H225" s="2">
         <v>1650</v>
       </c>
-      <c r="I225" s="2"/>
+      <c r="I225" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0800000000000004E-2</v>
+      </c>
       <c r="J225" s="2">
         <v>10</v>
       </c>
@@ -7866,7 +8519,10 @@
       <c r="H226" s="2">
         <v>1650</v>
       </c>
-      <c r="I226" s="2"/>
+      <c r="I226" s="2">
+        <f t="shared" si="3"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
       <c r="J226" s="2">
         <v>10</v>
       </c>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CF062-D656-5744-AC8F-3CBF56944A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03611151-A664-994A-BB2F-EB76E334EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13240" yWindow="760" windowWidth="17000" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="281">
   <si>
     <t>Initials</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>originally recorded as R1</t>
+  </si>
+  <si>
+    <t>B_sed_5m_R2_F5_25Jul19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_sed_10m_R2_F5_25Jul19 </t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3770,7 +3776,7 @@
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I130" si="1">F67-E67</f>
+        <f t="shared" ref="I67:I129" si="1">F67-E67</f>
         <v>7.4000000000000038E-3</v>
       </c>
       <c r="J67" s="2">
@@ -6670,7 +6676,7 @@
         <v>43672</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="E165" s="2">
         <v>0.1145</v>
@@ -6701,7 +6707,7 @@
         <v>43672</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="E166" s="2">
         <v>0.1138</v>
@@ -11386,7 +11392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E47FDD-54A3-4406-901D-1EE61702B2DC}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I114"/>
     </sheetView>
   </sheetViews>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03611151-A664-994A-BB2F-EB76E334EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79B2D5-64A0-1147-B495-FAC75BE2DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="760" windowWidth="17000" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7012,12 +7012,17 @@
       <c r="E176" s="2">
         <v>0.11550000000000001</v>
       </c>
-      <c r="F176" s="2"/>
+      <c r="F176" s="2">
+        <v>0.124</v>
+      </c>
       <c r="G176" s="2">
         <v>75</v>
       </c>
       <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+      <c r="I176" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4999999999999937E-3</v>
+      </c>
       <c r="J176" s="2">
         <v>14</v>
       </c>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlybauer/Desktop/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79B2D5-64A0-1147-B495-FAC75BE2DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C9528-3A23-3247-B866-31DCB77B3AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="-16000" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="289">
   <si>
     <t>Initials</t>
   </si>
@@ -802,12 +802,6 @@
     <t>F_sed_4m_R2_F1_02Sep19</t>
   </si>
   <si>
-    <t>Date_Filtered</t>
-  </si>
-  <si>
-    <t>Pan_Mass_g</t>
-  </si>
-  <si>
     <t>Duration_days</t>
   </si>
   <si>
@@ -878,6 +872,36 @@
   </si>
   <si>
     <t xml:space="preserve">B_sed_10m_R2_F5_25Jul19 </t>
+  </si>
+  <si>
+    <t>DateFiltered</t>
+  </si>
+  <si>
+    <t>FilterID</t>
+  </si>
+  <si>
+    <t>PanMass_g</t>
+  </si>
+  <si>
+    <t>FilterMassPre_g</t>
+  </si>
+  <si>
+    <t>FilterMassPost_g</t>
+  </si>
+  <si>
+    <t>FilterVol_mL</t>
+  </si>
+  <si>
+    <t>VolDiscarded_mL</t>
+  </si>
+  <si>
+    <t>SedMass_g</t>
+  </si>
+  <si>
+    <t>VolDiscarded_L</t>
+  </si>
+  <si>
+    <t>FilterVol_L</t>
   </si>
 </sst>
 </file>
@@ -1559,9 +1583,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1599,7 +1623,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1705,7 +1729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1847,7 +1871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1855,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1867,48 +1891,56 @@
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1927,17 +1959,22 @@
       <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="H2" s="2">
+        <f>G2/1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <f>F2-E2</f>
         <v>1.1300000000000004E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>14</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1956,17 +1993,22 @@
       <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">F3-E3</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H66" si="0">G3/1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="1">F3-E3</f>
         <v>1.4700000000000005E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>14</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1985,17 +2027,22 @@
       <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>14</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2014,16 +2061,21 @@
       <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
         <v>1.0499999999999995E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2040,13 +2092,18 @@
       <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2065,17 +2122,22 @@
       <c r="G7" s="2">
         <v>100</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
         <v>9.900000000000006E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>14</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -2094,17 +2156,22 @@
       <c r="G8" s="2">
         <v>100</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
         <v>5.6000000000000077E-3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>14</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2123,17 +2190,22 @@
       <c r="G9" s="2">
         <v>100</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
         <v>7.9000000000000042E-3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>14</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2152,16 +2224,21 @@
       <c r="G10" s="2">
         <v>200</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
         <v>7.6999999999999985E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2180,16 +2257,21 @@
       <c r="G11" s="2">
         <v>200</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
         <v>7.5000000000000067E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2208,16 +2290,21 @@
       <c r="G12" s="2">
         <v>200</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
         <v>6.8999999999999895E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2236,16 +2323,21 @@
       <c r="G13" s="2">
         <v>200</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
         <v>6.9000000000000034E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2264,17 +2356,22 @@
       <c r="G14" s="2">
         <v>200</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
         <v>8.8000000000000023E-3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>14</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2293,17 +2390,22 @@
       <c r="G15" s="2">
         <v>200</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
         <v>9.4999999999999946E-3</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>14</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2322,17 +2424,22 @@
       <c r="G16" s="2">
         <v>200</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>14</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -2351,17 +2458,22 @@
       <c r="G17" s="2">
         <v>200</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
         <v>1.0099999999999998E-2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>14</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -2380,17 +2492,22 @@
       <c r="G18" s="2">
         <v>300</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>14</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2409,17 +2526,22 @@
       <c r="G19" s="2">
         <v>300</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
         <v>8.2999999999999879E-3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>14</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -2438,16 +2560,21 @@
       <c r="G20" s="2">
         <v>300</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
         <v>9.4000000000000056E-3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2466,16 +2593,21 @@
       <c r="G21" s="2">
         <v>300</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2494,17 +2626,22 @@
       <c r="G22" s="2">
         <v>200</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>14</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2523,17 +2660,22 @@
       <c r="G23" s="2">
         <v>200</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
         <v>6.1999999999999972E-3</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>14</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2552,19 +2694,24 @@
       <c r="G24" s="2">
         <v>200</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>14</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2583,17 +2730,22 @@
       <c r="G25" s="2">
         <v>200</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
         <v>9.099999999999997E-3</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>14</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2612,19 +2764,24 @@
       <c r="G26" s="2">
         <v>205</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
         <v>7.5999999999999956E-3</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>14</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2643,17 +2800,22 @@
       <c r="G27" s="2">
         <v>200</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
         <v>7.1999999999999981E-3</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>14</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2672,17 +2834,22 @@
       <c r="G28" s="2">
         <v>205</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
         <v>6.0999999999999943E-3</v>
       </c>
-      <c r="J28" s="2">
+      <c r="L28" s="2">
         <v>14</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2701,15 +2868,20 @@
       <c r="G29" s="2">
         <v>205</v>
       </c>
-      <c r="I29" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
         <v>6.1999999999999972E-3</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2726,12 +2898,17 @@
       <c r="G30" s="2">
         <v>200</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2748,12 +2925,17 @@
       <c r="G31" s="2">
         <v>200</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2770,12 +2952,17 @@
       <c r="G32" s="2">
         <v>190</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2">
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2794,17 +2981,22 @@
       <c r="G33" s="2">
         <v>200</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
         <v>1.1499999999999996E-2</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>14</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -2823,17 +3015,22 @@
       <c r="G34" s="2">
         <v>300</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
         <v>4.6000000000000069E-3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>7</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -2852,19 +3049,24 @@
       <c r="G35" s="2">
         <v>300</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
+      <c r="H35" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>7</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -2883,17 +3085,22 @@
       <c r="G36" s="2">
         <v>300</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
+      <c r="H36" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
         <v>4.599999999999993E-3</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>7</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2912,17 +3119,22 @@
       <c r="G37" s="2">
         <v>300</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+      <c r="H37" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
         <v>4.9000000000000016E-3</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>7</v>
       </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -2941,17 +3153,22 @@
       <c r="G38" s="2">
         <v>300</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+      <c r="H38" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
         <v>1.2900000000000009E-2</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>7</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -2970,17 +3187,22 @@
       <c r="G39" s="2">
         <v>300</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
+      <c r="H39" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
         <v>1.1800000000000005E-2</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>7</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2999,16 +3221,21 @@
       <c r="G40" s="2">
         <v>200</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
         <v>2.7399999999999994E-2</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -3027,16 +3254,21 @@
       <c r="G41" s="2">
         <v>200</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
+      <c r="H41" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
         <v>8.3000000000000018E-3</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3276,7 @@
         <v>43655</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E42" s="2">
         <v>0.11509999999999999</v>
@@ -3055,16 +3287,21 @@
       <c r="G42" s="2">
         <v>300</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
+      <c r="H42" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
         <v>1.5900000000000011E-2</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3309,7 @@
         <v>43655</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E43" s="2">
         <v>0.1139</v>
@@ -3083,17 +3320,22 @@
       <c r="G43" s="2">
         <v>300</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
+      <c r="H43" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
         <v>1.8100000000000005E-2</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>21</v>
       </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -3101,7 +3343,7 @@
         <v>43655</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E44" s="2">
         <v>0.1139</v>
@@ -3112,17 +3354,22 @@
       <c r="G44" s="2">
         <v>300</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
+      <c r="H44" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
         <v>1.4100000000000001E-2</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>21</v>
       </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3377,7 @@
         <v>43655</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E45" s="2">
         <v>0.1148</v>
@@ -3141,16 +3388,21 @@
       <c r="G45" s="2">
         <v>300</v>
       </c>
-      <c r="I45" s="2">
+      <c r="H45" s="2">
         <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
         <v>1.6400000000000012E-2</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>21</v>
       </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -3158,7 +3410,7 @@
         <v>43655</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E46" s="2">
         <v>0.1145</v>
@@ -3169,19 +3421,24 @@
       <c r="G46" s="2">
         <v>200</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
+      <c r="H46" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
         <v>1.7799999999999996E-2</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>21</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -3189,7 +3446,7 @@
         <v>43655</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E47" s="2">
         <v>0.11409999999999999</v>
@@ -3200,17 +3457,22 @@
       <c r="G47" s="2">
         <v>200</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2">
+      <c r="H47" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
         <v>1.8299999999999997E-2</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
         <v>21</v>
       </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +3480,7 @@
         <v>43655</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E48" s="2">
         <v>0.11360000000000001</v>
@@ -3229,17 +3491,22 @@
       <c r="G48" s="2">
         <v>200</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
+      <c r="H48" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
         <v>1.949999999999999E-2</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>21</v>
       </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3514,7 @@
         <v>43655</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E49" s="2">
         <v>0.1145</v>
@@ -3258,19 +3525,24 @@
       <c r="G49" s="2">
         <v>200</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
+      <c r="H49" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="J49" s="2">
+      <c r="L49" s="2">
         <v>21</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -3289,19 +3561,24 @@
       <c r="G50" s="2">
         <v>200</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
+      <c r="H50" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
         <v>1.3299999999999992E-2</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="2">
         <v>14</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -3320,17 +3597,22 @@
       <c r="G51" s="2">
         <v>200</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2">
+      <c r="H51" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
         <v>1.3700000000000004E-2</v>
       </c>
-      <c r="J51" s="2">
+      <c r="L51" s="2">
         <v>14</v>
       </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3349,17 +3631,22 @@
       <c r="G52" s="2">
         <v>150</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2">
+      <c r="H52" s="2">
         <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
         <v>7.4000000000000038E-3</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="2">
         <v>14</v>
       </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3376,13 +3663,18 @@
       <c r="G53" s="2">
         <v>150</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="2">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -3401,18 +3693,23 @@
       <c r="G54" s="2">
         <v>150</v>
       </c>
-      <c r="I54" s="2">
+      <c r="H54" s="2">
         <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="J54" s="2">
+      <c r="L54" s="2">
         <v>14</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -3431,16 +3728,21 @@
       <c r="G55" s="2">
         <v>150</v>
       </c>
-      <c r="I55" s="2">
+      <c r="H55" s="2">
         <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
         <v>1.7200000000000007E-2</v>
       </c>
-      <c r="J55" s="2">
+      <c r="L55" s="2">
         <v>14</v>
       </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -3459,15 +3761,20 @@
       <c r="G56" s="2">
         <v>200</v>
       </c>
-      <c r="I56" s="2">
+      <c r="H56" s="2">
         <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
         <v>3.8600000000000009E-2</v>
       </c>
-      <c r="J56" s="2">
+      <c r="L56" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -3486,15 +3793,20 @@
       <c r="G57" s="2">
         <v>170</v>
       </c>
-      <c r="I57" s="2">
+      <c r="H57" s="2">
         <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J57" s="2">
+      <c r="L57" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3814,7 @@
         <v>43683</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E58" s="2">
         <v>0.1135</v>
@@ -3513,17 +3825,22 @@
       <c r="G58" s="2">
         <v>100</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
+      <c r="H58" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="J58" s="2">
+      <c r="L58" s="2">
         <v>14</v>
       </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3848,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E59" s="2">
         <v>0.11360000000000001</v>
@@ -3542,17 +3859,22 @@
       <c r="G59" s="2">
         <v>100</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2">
+      <c r="H59" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
         <v>6.8999999999999895E-3</v>
       </c>
-      <c r="J59" s="2">
+      <c r="L59" s="2">
         <v>14</v>
       </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +3882,7 @@
         <v>43683</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E60" s="2">
         <v>0.1139</v>
@@ -3571,17 +3893,22 @@
       <c r="G60" s="2">
         <v>100</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2">
+      <c r="H60" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
         <v>7.5999999999999956E-3</v>
       </c>
-      <c r="J60" s="2">
+      <c r="L60" s="2">
         <v>14</v>
       </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -3589,7 +3916,7 @@
         <v>43683</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E61" s="2">
         <v>0.1139</v>
@@ -3600,17 +3927,22 @@
       <c r="G61" s="2">
         <v>100</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2">
+      <c r="H61" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
         <v>7.9999999999999932E-3</v>
       </c>
-      <c r="J61" s="2">
+      <c r="L61" s="2">
         <v>14</v>
       </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -3618,7 +3950,7 @@
         <v>43683</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E62" s="2">
         <v>0.1149</v>
@@ -3629,17 +3961,22 @@
       <c r="G62" s="2">
         <v>100</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2">
+      <c r="H62" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="J62" s="2">
+      <c r="L62" s="2">
         <v>14</v>
       </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -3647,7 +3984,7 @@
         <v>43683</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E63" s="2">
         <v>0.1147</v>
@@ -3658,17 +3995,22 @@
       <c r="G63" s="2">
         <v>100</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2">
+      <c r="H63" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J63" s="2">
+      <c r="L63" s="2">
         <v>14</v>
       </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -3676,7 +4018,7 @@
         <v>43683</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E64" s="2">
         <v>0.1143</v>
@@ -3687,17 +4029,22 @@
       <c r="G64" s="2">
         <v>100</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2">
+      <c r="H64" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="J64" s="2">
+      <c r="L64" s="2">
         <v>14</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -3705,7 +4052,7 @@
         <v>43683</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E65" s="2">
         <v>0.11360000000000001</v>
@@ -3716,17 +4063,22 @@
       <c r="G65" s="2">
         <v>100</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2">
+      <c r="H65" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
         <v>1.1699999999999988E-2</v>
       </c>
-      <c r="J65" s="2">
+      <c r="L65" s="2">
         <v>14</v>
       </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -3745,17 +4097,22 @@
       <c r="G66" s="2">
         <v>100</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2">
+      <c r="H66" s="2">
         <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
         <v>6.6999999999999976E-3</v>
       </c>
-      <c r="J66" s="2">
+      <c r="L66" s="2">
         <v>14</v>
       </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3774,17 +4131,22 @@
       <c r="G67" s="2">
         <v>100</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2">
-        <f t="shared" ref="I67:I129" si="1">F67-E67</f>
+      <c r="H67" s="2">
+        <f t="shared" ref="H67:H130" si="2">G67/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K129" si="3">F67-E67</f>
         <v>7.4000000000000038E-3</v>
       </c>
-      <c r="J67" s="2">
+      <c r="L67" s="2">
         <v>14</v>
       </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -3803,17 +4165,22 @@
       <c r="G68" s="2">
         <v>100</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
-        <f t="shared" si="1"/>
+      <c r="H68" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
+        <f t="shared" si="3"/>
         <v>7.4000000000000038E-3</v>
       </c>
-      <c r="J68" s="2">
+      <c r="L68" s="2">
         <v>14</v>
       </c>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3832,17 +4199,22 @@
       <c r="G69" s="2">
         <v>100</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2">
-        <f t="shared" si="1"/>
+      <c r="H69" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
+        <f t="shared" si="3"/>
         <v>5.9000000000000025E-3</v>
       </c>
-      <c r="J69" s="2">
+      <c r="L69" s="2">
         <v>14</v>
       </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
@@ -3861,17 +4233,22 @@
       <c r="G70" s="2">
         <v>50</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2">
-        <f t="shared" si="1"/>
+      <c r="H70" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
+        <f t="shared" si="3"/>
         <v>1.5099999999999988E-2</v>
       </c>
-      <c r="J70" s="2">
+      <c r="L70" s="2">
         <v>14</v>
       </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -3890,17 +4267,22 @@
       <c r="G71" s="2">
         <v>50</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2">
-        <f t="shared" si="1"/>
+      <c r="H71" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2">
+        <f t="shared" si="3"/>
         <v>1.2699999999999989E-2</v>
       </c>
-      <c r="J71" s="2">
+      <c r="L71" s="2">
         <v>14</v>
       </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
@@ -3919,17 +4301,22 @@
       <c r="G72" s="2">
         <v>50</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2">
-        <f t="shared" si="1"/>
+      <c r="H72" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
         <v>1.2700000000000003E-2</v>
       </c>
-      <c r="J72" s="2">
+      <c r="L72" s="2">
         <v>14</v>
       </c>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -3948,17 +4335,22 @@
       <c r="G73" s="2">
         <v>50</v>
       </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2">
-        <f t="shared" si="1"/>
+      <c r="H73" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2">
+        <f t="shared" si="3"/>
         <v>1.2300000000000005E-2</v>
       </c>
-      <c r="J73" s="2">
+      <c r="L73" s="2">
         <v>14</v>
       </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -3977,17 +4369,22 @@
       <c r="G74" s="2">
         <v>100</v>
       </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2">
-        <f t="shared" si="1"/>
+      <c r="H74" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
         <v>3.1000000000000055E-3</v>
       </c>
-      <c r="J74" s="2">
+      <c r="L74" s="2">
         <v>14</v>
       </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -4006,17 +4403,22 @@
       <c r="G75" s="2">
         <v>100</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2">
-        <f t="shared" si="1"/>
+      <c r="H75" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="J75" s="2">
+      <c r="L75" s="2">
         <v>14</v>
       </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -4035,17 +4437,22 @@
       <c r="G76" s="2">
         <v>100</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2">
-        <f t="shared" si="1"/>
+      <c r="H76" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
         <v>3.9000000000000007E-3</v>
       </c>
-      <c r="J76" s="2">
+      <c r="L76" s="2">
         <v>14</v>
       </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4460,7 @@
         <v>43710</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E77" s="2">
         <v>0.1142</v>
@@ -4064,17 +4471,22 @@
       <c r="G77" s="2">
         <v>100</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2">
-        <f t="shared" si="1"/>
+      <c r="H77" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="J77" s="2">
+      <c r="L77" s="2">
         <v>14</v>
       </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -4091,17 +4503,22 @@
       <c r="G78" s="2">
         <v>100</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2">
-        <f t="shared" si="1"/>
+      <c r="H78" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2">
+        <f t="shared" si="3"/>
         <v>5.400000000000002E-3</v>
       </c>
-      <c r="J78" s="2">
+      <c r="L78" s="2">
         <v>14</v>
       </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -4118,17 +4535,22 @@
       <c r="G79" s="2">
         <v>100</v>
       </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2">
-        <f t="shared" si="1"/>
+      <c r="H79" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
         <v>6.1999999999999972E-3</v>
       </c>
-      <c r="J79" s="2">
+      <c r="L79" s="2">
         <v>14</v>
       </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -4145,17 +4567,22 @@
       <c r="G80" s="2">
         <v>100</v>
       </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2">
-        <f t="shared" si="1"/>
+      <c r="H80" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2">
+        <f t="shared" si="3"/>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>14</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -4172,17 +4599,22 @@
       <c r="G81" s="2">
         <v>100</v>
       </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2">
-        <f t="shared" si="1"/>
+      <c r="H81" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2">
+        <f t="shared" si="3"/>
         <v>1.4500000000000013E-2</v>
       </c>
-      <c r="J81" s="2">
+      <c r="L81" s="2">
         <v>14</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -4202,18 +4634,26 @@
         <v>110</v>
       </c>
       <c r="H82" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="I82" s="2">
         <v>1510</v>
       </c>
-      <c r="I82" s="2">
-        <f t="shared" si="1"/>
+      <c r="J82" s="2">
+        <f t="shared" ref="J67:J130" si="4">I82/1000</f>
+        <v>1.51</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
         <v>7.4999999999999928E-3</v>
       </c>
-      <c r="J82" s="2">
+      <c r="L82" s="2">
         <v>25</v>
       </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -4233,18 +4673,26 @@
         <v>90</v>
       </c>
       <c r="H83" s="2">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="I83" s="2">
         <v>1510</v>
       </c>
-      <c r="I83" s="2">
-        <f t="shared" si="1"/>
+      <c r="J83" s="2">
+        <f t="shared" si="4"/>
+        <v>1.51</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="3"/>
         <v>5.2999999999999992E-3</v>
       </c>
-      <c r="J83" s="2">
+      <c r="L83" s="2">
         <v>25</v>
       </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -4264,18 +4712,26 @@
         <v>85</v>
       </c>
       <c r="H84" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I84" s="2">
         <v>1580</v>
       </c>
-      <c r="I84" s="2">
-        <f t="shared" si="1"/>
+      <c r="J84" s="2">
+        <f t="shared" si="4"/>
+        <v>1.58</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="3"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="J84" s="2">
+      <c r="L84" s="2">
         <v>25</v>
       </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -4295,18 +4751,26 @@
         <v>90</v>
       </c>
       <c r="H85" s="2">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="I85" s="2">
         <v>1580</v>
       </c>
-      <c r="I85" s="2">
-        <f t="shared" si="1"/>
+      <c r="J85" s="2">
+        <f t="shared" si="4"/>
+        <v>1.58</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="3"/>
         <v>3.7999999999999978E-3</v>
       </c>
-      <c r="J85" s="2">
+      <c r="L85" s="2">
         <v>25</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -4326,18 +4790,26 @@
         <v>20</v>
       </c>
       <c r="H86" s="2">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="I86" s="2">
         <v>1760</v>
       </c>
-      <c r="I86" s="2">
-        <f t="shared" si="1"/>
+      <c r="J86" s="2">
+        <f t="shared" si="4"/>
+        <v>1.76</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="3"/>
         <v>1.2300000000000005E-2</v>
       </c>
-      <c r="J86" s="2">
+      <c r="L86" s="2">
         <v>25</v>
       </c>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -4357,18 +4829,26 @@
         <v>20</v>
       </c>
       <c r="H87" s="2">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="I87" s="2">
         <v>1760</v>
       </c>
-      <c r="I87" s="2">
-        <f t="shared" si="1"/>
+      <c r="J87" s="2">
+        <f t="shared" si="4"/>
+        <v>1.76</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="3"/>
         <v>1.3100000000000014E-2</v>
       </c>
-      <c r="J87" s="2">
+      <c r="L87" s="2">
         <v>25</v>
       </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -4388,18 +4868,26 @@
         <v>25</v>
       </c>
       <c r="H88" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I88" s="2">
         <v>1740</v>
       </c>
-      <c r="I88" s="2">
-        <f t="shared" si="1"/>
+      <c r="J88" s="2">
+        <f t="shared" si="4"/>
+        <v>1.74</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="3"/>
         <v>1.0100000000000012E-2</v>
       </c>
-      <c r="J88" s="2">
+      <c r="L88" s="2">
         <v>25</v>
       </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -4419,18 +4907,26 @@
         <v>25</v>
       </c>
       <c r="H89" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I89" s="2">
         <v>1740</v>
       </c>
-      <c r="I89" s="2">
-        <f t="shared" si="1"/>
+      <c r="J89" s="2">
+        <f t="shared" si="4"/>
+        <v>1.74</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="3"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="J89" s="2">
+      <c r="L89" s="2">
         <v>25</v>
       </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -4450,18 +4946,26 @@
         <v>110</v>
       </c>
       <c r="H90" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="I90" s="2">
         <v>1650</v>
       </c>
-      <c r="I90" s="2">
-        <f t="shared" si="1"/>
+      <c r="J90" s="2">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="3"/>
         <v>3.9000000000000007E-3</v>
       </c>
-      <c r="J90" s="2">
+      <c r="L90" s="2">
         <v>14</v>
       </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -4481,18 +4985,26 @@
         <v>80</v>
       </c>
       <c r="H91" s="2">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="I91" s="2">
         <v>1650</v>
       </c>
-      <c r="I91" s="2">
-        <f t="shared" si="1"/>
+      <c r="J91" s="2">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="3"/>
         <v>4.7000000000000097E-3</v>
       </c>
-      <c r="J91" s="2">
+      <c r="L91" s="2">
         <v>14</v>
       </c>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -4512,18 +5024,26 @@
         <v>70</v>
       </c>
       <c r="H92" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I92" s="2">
         <v>1650</v>
       </c>
-      <c r="I92" s="2">
-        <f t="shared" si="1"/>
+      <c r="J92" s="2">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="3"/>
         <v>4.7999999999999987E-3</v>
       </c>
-      <c r="J92" s="2">
+      <c r="L92" s="2">
         <v>14</v>
       </c>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -4543,18 +5063,26 @@
         <v>75</v>
       </c>
       <c r="H93" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I93" s="2">
         <v>1650</v>
       </c>
-      <c r="I93" s="2">
-        <f t="shared" si="1"/>
+      <c r="J93" s="2">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="3"/>
         <v>4.7999999999999987E-3</v>
       </c>
-      <c r="J93" s="2">
+      <c r="L93" s="2">
         <v>14</v>
       </c>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -4574,18 +5102,26 @@
         <v>45</v>
       </c>
       <c r="H94" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I94" s="2">
         <v>1640</v>
       </c>
-      <c r="I94" s="2">
-        <f t="shared" si="1"/>
+      <c r="J94" s="2">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="3"/>
         <v>8.8999999999999913E-3</v>
       </c>
-      <c r="J94" s="2">
+      <c r="L94" s="2">
         <v>14</v>
       </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -4605,18 +5141,26 @@
         <v>45</v>
       </c>
       <c r="H95" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I95" s="2">
         <v>1640</v>
       </c>
-      <c r="I95" s="2">
-        <f t="shared" si="1"/>
+      <c r="J95" s="2">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="3"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J95" s="2">
+      <c r="L95" s="2">
         <v>14</v>
       </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -4636,18 +5180,26 @@
         <v>45</v>
       </c>
       <c r="H96" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I96" s="2">
         <v>1670</v>
       </c>
-      <c r="I96" s="2">
-        <f t="shared" si="1"/>
+      <c r="J96" s="2">
+        <f t="shared" si="4"/>
+        <v>1.67</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="J96" s="2">
+      <c r="L96" s="2">
         <v>14</v>
       </c>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -4667,18 +5219,26 @@
         <v>60</v>
       </c>
       <c r="H97" s="2">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="I97" s="2">
         <v>1670</v>
       </c>
-      <c r="I97" s="2">
-        <f t="shared" si="1"/>
+      <c r="J97" s="2">
+        <f t="shared" si="4"/>
+        <v>1.67</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="3"/>
         <v>1.1299999999999991E-2</v>
       </c>
-      <c r="J97" s="2">
+      <c r="L97" s="2">
         <v>14</v>
       </c>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -4698,18 +5258,26 @@
         <v>200</v>
       </c>
       <c r="H98" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I98" s="2">
         <v>1480</v>
       </c>
-      <c r="I98" s="2">
-        <f t="shared" si="1"/>
+      <c r="J98" s="2">
+        <f t="shared" si="4"/>
+        <v>1.48</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="3"/>
         <v>1.0900000000000007E-2</v>
       </c>
-      <c r="J98" s="2">
+      <c r="L98" s="2">
         <v>12</v>
       </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -4729,18 +5297,26 @@
         <v>100</v>
       </c>
       <c r="H99" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I99" s="2">
         <v>1480</v>
       </c>
-      <c r="I99" s="2">
-        <f t="shared" si="1"/>
+      <c r="J99" s="2">
+        <f t="shared" si="4"/>
+        <v>1.48</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="3"/>
         <v>4.9000000000000016E-3</v>
       </c>
-      <c r="J99" s="2">
+      <c r="L99" s="2">
         <v>12</v>
       </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -4760,18 +5336,26 @@
         <v>100</v>
       </c>
       <c r="H100" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I100" s="2">
         <v>1510</v>
       </c>
-      <c r="I100" s="2">
-        <f t="shared" si="1"/>
+      <c r="J100" s="2">
+        <f t="shared" si="4"/>
+        <v>1.51</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="3"/>
         <v>4.9000000000000016E-3</v>
       </c>
-      <c r="J100" s="2">
+      <c r="L100" s="2">
         <v>12</v>
       </c>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -4791,18 +5375,26 @@
         <v>100</v>
       </c>
       <c r="H101" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I101" s="2">
         <v>1510</v>
       </c>
-      <c r="I101" s="2">
-        <f t="shared" si="1"/>
+      <c r="J101" s="2">
+        <f t="shared" si="4"/>
+        <v>1.51</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="3"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="J101" s="2">
+      <c r="L101" s="2">
         <v>12</v>
       </c>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -4822,18 +5414,26 @@
         <v>100</v>
       </c>
       <c r="H102" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I102" s="2">
         <v>1605</v>
       </c>
-      <c r="I102" s="2">
-        <f t="shared" si="1"/>
+      <c r="J102" s="2">
+        <f t="shared" si="4"/>
+        <v>1.605</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="3"/>
         <v>2.23E-2</v>
       </c>
-      <c r="J102" s="2">
+      <c r="L102" s="2">
         <v>12</v>
       </c>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4853,20 +5453,28 @@
         <v>50</v>
       </c>
       <c r="H103" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I103" s="2">
         <v>1605</v>
       </c>
-      <c r="I103" s="2">
-        <f t="shared" si="1"/>
+      <c r="J103" s="2">
+        <f t="shared" si="4"/>
+        <v>1.605</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="3"/>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J103" s="2">
+      <c r="L103" s="2">
         <v>12</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
@@ -4886,18 +5494,26 @@
         <v>50</v>
       </c>
       <c r="H104" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I104" s="2">
         <v>1685</v>
       </c>
-      <c r="I104" s="2">
-        <f t="shared" si="1"/>
+      <c r="J104" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="3"/>
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="J104" s="2">
+      <c r="L104" s="2">
         <v>12</v>
       </c>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -4917,18 +5533,26 @@
         <v>50</v>
       </c>
       <c r="H105" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I105" s="2">
         <v>1685</v>
       </c>
-      <c r="I105" s="2">
-        <f t="shared" si="1"/>
+      <c r="J105" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="3"/>
         <v>1.1200000000000002E-2</v>
       </c>
-      <c r="J105" s="2">
+      <c r="L105" s="2">
         <v>12</v>
       </c>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
@@ -4948,20 +5572,28 @@
         <v>150</v>
       </c>
       <c r="H106" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="I106" s="2">
         <v>1215</v>
       </c>
-      <c r="I106" s="2">
-        <f t="shared" si="1"/>
+      <c r="J106" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="3"/>
         <v>7.8000000000000014E-3</v>
       </c>
-      <c r="J106" s="2">
+      <c r="L106" s="2">
         <v>16</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>9</v>
       </c>
@@ -4981,20 +5613,28 @@
         <v>150</v>
       </c>
       <c r="H107" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="I107" s="2">
         <v>1215</v>
       </c>
-      <c r="I107" s="2">
-        <f t="shared" si="1"/>
+      <c r="J107" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="3"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="J107" s="2">
+      <c r="L107" s="2">
         <v>16</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -5014,20 +5654,28 @@
         <v>150</v>
       </c>
       <c r="H108" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="I108" s="2">
         <v>1445</v>
       </c>
-      <c r="I108" s="2">
-        <f t="shared" si="1"/>
+      <c r="J108" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="3"/>
         <v>1.1300000000000004E-2</v>
       </c>
-      <c r="J108" s="2">
+      <c r="L108" s="2">
         <v>16</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="M108" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>9</v>
       </c>
@@ -5047,20 +5695,28 @@
         <v>150</v>
       </c>
       <c r="H109" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="I109" s="2">
         <v>1445</v>
       </c>
-      <c r="I109" s="2">
-        <f t="shared" si="1"/>
+      <c r="J109" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="3"/>
         <v>1.2200000000000016E-2</v>
       </c>
-      <c r="J109" s="2">
+      <c r="L109" s="2">
         <v>16</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="M109" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -5080,20 +5736,28 @@
         <v>50</v>
       </c>
       <c r="H110" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I110" s="2">
         <v>1160</v>
       </c>
-      <c r="I110" s="2">
-        <f t="shared" si="1"/>
+      <c r="J110" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="3"/>
         <v>1.3200000000000003E-2</v>
       </c>
-      <c r="J110" s="2">
+      <c r="L110" s="2">
         <v>16</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -5113,20 +5777,28 @@
         <v>50</v>
       </c>
       <c r="H111" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I111" s="2">
         <v>1160</v>
       </c>
-      <c r="I111" s="2">
-        <f t="shared" si="1"/>
+      <c r="J111" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="3"/>
         <v>1.1800000000000005E-2</v>
       </c>
-      <c r="J111" s="2">
+      <c r="L111" s="2">
         <v>16</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="M111" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>9</v>
       </c>
@@ -5146,20 +5818,28 @@
         <v>50</v>
       </c>
       <c r="H112" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I112" s="2">
         <v>1640</v>
       </c>
-      <c r="I112" s="2">
-        <f t="shared" si="1"/>
+      <c r="J112" s="2">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="3"/>
         <v>8.3000000000000018E-3</v>
       </c>
-      <c r="J112" s="2">
+      <c r="L112" s="2">
         <v>16</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>13</v>
       </c>
@@ -5179,20 +5859,28 @@
         <v>50</v>
       </c>
       <c r="H113" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I113" s="2">
         <v>1640</v>
       </c>
-      <c r="I113" s="2">
-        <f t="shared" si="1"/>
+      <c r="J113" s="2">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="3"/>
         <v>8.8999999999999913E-3</v>
       </c>
-      <c r="J113" s="2">
+      <c r="L113" s="2">
         <v>16</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="M113" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>26</v>
       </c>
@@ -5211,19 +5899,24 @@
       <c r="G114" s="2">
         <v>200</v>
       </c>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2">
-        <f t="shared" si="1"/>
+      <c r="H114" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2">
+        <f t="shared" si="3"/>
         <v>1.6799999999999995E-2</v>
       </c>
-      <c r="J114" s="2">
+      <c r="L114" s="2">
         <v>21</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="M114" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>28</v>
       </c>
@@ -5242,17 +5935,22 @@
       <c r="G115" s="2">
         <v>100</v>
       </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2">
-        <f t="shared" si="1"/>
+      <c r="H115" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2">
+        <f t="shared" si="3"/>
         <v>8.8999999999999913E-3</v>
       </c>
-      <c r="J115" s="2">
+      <c r="L115" s="2">
         <v>21</v>
       </c>
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>26</v>
       </c>
@@ -5271,17 +5969,22 @@
       <c r="G116" s="2">
         <v>100</v>
       </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2">
-        <f t="shared" si="1"/>
+      <c r="H116" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2">
+        <f t="shared" si="3"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J116" s="2">
+      <c r="L116" s="2">
         <v>21</v>
       </c>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>26</v>
       </c>
@@ -5300,17 +6003,22 @@
       <c r="G117" s="2">
         <v>100</v>
       </c>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2">
-        <f t="shared" si="1"/>
+      <c r="H117" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2">
+        <f t="shared" si="3"/>
         <v>7.1999999999999981E-3</v>
       </c>
-      <c r="J117" s="2">
+      <c r="L117" s="2">
         <v>21</v>
       </c>
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>29</v>
       </c>
@@ -5329,17 +6037,22 @@
       <c r="G118" s="2">
         <v>100</v>
       </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2">
-        <f t="shared" si="1"/>
+      <c r="H118" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2">
+        <f t="shared" si="3"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="J118" s="2">
+      <c r="L118" s="2">
         <v>21</v>
       </c>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>29</v>
       </c>
@@ -5358,17 +6071,22 @@
       <c r="G119" s="2">
         <v>100</v>
       </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2">
-        <f t="shared" si="1"/>
+      <c r="H119" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2">
+        <f t="shared" si="3"/>
         <v>8.3999999999999908E-3</v>
       </c>
-      <c r="J119" s="2">
+      <c r="L119" s="2">
         <v>21</v>
       </c>
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>29</v>
       </c>
@@ -5376,7 +6094,7 @@
         <v>43585</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E120" s="2">
         <v>0.1149</v>
@@ -5387,19 +6105,24 @@
       <c r="G120" s="2">
         <v>100</v>
       </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2">
-        <f t="shared" si="1"/>
+      <c r="H120" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2">
+        <f t="shared" si="3"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="J120" s="2">
+      <c r="L120" s="2">
         <v>21</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M120" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>29</v>
       </c>
@@ -5407,7 +6130,7 @@
         <v>43585</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E121" s="2">
         <v>0.1147</v>
@@ -5418,19 +6141,24 @@
       <c r="G121" s="2">
         <v>100</v>
       </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2">
-        <f t="shared" si="1"/>
+      <c r="H121" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2">
+        <f t="shared" si="3"/>
         <v>9.8000000000000032E-3</v>
       </c>
-      <c r="J121" s="2">
+      <c r="L121" s="2">
         <v>21</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M121" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>32</v>
       </c>
@@ -5449,17 +6177,22 @@
       <c r="G122" s="2">
         <v>400</v>
       </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2">
-        <f t="shared" si="1"/>
+      <c r="H122" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2">
+        <f t="shared" si="3"/>
         <v>1.2399999999999994E-2</v>
       </c>
-      <c r="J122" s="2">
+      <c r="L122" s="2">
         <v>17</v>
       </c>
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -5478,17 +6211,22 @@
       <c r="G123" s="2">
         <v>400</v>
       </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2">
-        <f t="shared" si="1"/>
+      <c r="H123" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2">
+        <f t="shared" si="3"/>
         <v>1.369999999999999E-2</v>
       </c>
-      <c r="J123" s="2">
+      <c r="L123" s="2">
         <v>17</v>
       </c>
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
@@ -5507,17 +6245,22 @@
       <c r="G124" s="2">
         <v>300</v>
       </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2">
-        <f t="shared" si="1"/>
+      <c r="H124" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2">
+        <f t="shared" si="3"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J124" s="2">
+      <c r="L124" s="2">
         <v>17</v>
       </c>
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>32</v>
       </c>
@@ -5536,17 +6279,22 @@
       <c r="G125" s="2">
         <v>300</v>
       </c>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2">
-        <f t="shared" si="1"/>
+      <c r="H125" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2">
+        <f t="shared" si="3"/>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J125" s="2">
+      <c r="L125" s="2">
         <v>17</v>
       </c>
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
@@ -5565,17 +6313,22 @@
       <c r="G126" s="2">
         <v>200</v>
       </c>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2">
-        <f t="shared" si="1"/>
+      <c r="H126" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2">
+        <f t="shared" si="3"/>
         <v>1.490000000000001E-2</v>
       </c>
-      <c r="J126" s="2">
+      <c r="L126" s="2">
         <v>17</v>
       </c>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>32</v>
       </c>
@@ -5594,17 +6347,22 @@
       <c r="G127" s="2">
         <v>200</v>
       </c>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2">
-        <f t="shared" si="1"/>
+      <c r="H127" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2">
+        <f t="shared" si="3"/>
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="J127" s="2">
+      <c r="L127" s="2">
         <v>17</v>
       </c>
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>32</v>
       </c>
@@ -5623,17 +6381,22 @@
       <c r="G128" s="2">
         <v>200</v>
       </c>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2">
-        <f t="shared" si="1"/>
+      <c r="H128" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2">
+        <f t="shared" si="3"/>
         <v>9.3000000000000027E-3</v>
       </c>
-      <c r="J128" s="2">
+      <c r="L128" s="2">
         <v>17</v>
       </c>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>32</v>
       </c>
@@ -5652,17 +6415,22 @@
       <c r="G129" s="2">
         <v>200</v>
       </c>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2">
-        <f t="shared" si="1"/>
+      <c r="H129" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2">
+        <f t="shared" si="3"/>
         <v>1.1200000000000002E-2</v>
       </c>
-      <c r="J129" s="2">
+      <c r="L129" s="2">
         <v>17</v>
       </c>
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>8</v>
       </c>
@@ -5679,14 +6447,19 @@
       <c r="G130" s="2">
         <v>300</v>
       </c>
-      <c r="H130" s="2"/>
+      <c r="H130" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
       <c r="I130" s="2"/>
-      <c r="J130" s="2">
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2">
         <v>14</v>
       </c>
-      <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>8</v>
       </c>
@@ -5705,17 +6478,22 @@
       <c r="G131" s="2">
         <v>300</v>
       </c>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2">
-        <f t="shared" ref="I131:I194" si="2">F131-E131</f>
+      <c r="H131" s="2">
+        <f t="shared" ref="H131:H194" si="5">G131/1000</f>
+        <v>0.3</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2">
+        <f t="shared" ref="K131:K194" si="6">F131-E131</f>
         <v>9.8000000000000032E-3</v>
       </c>
-      <c r="J131" s="2">
+      <c r="L131" s="2">
         <v>14</v>
       </c>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>8</v>
       </c>
@@ -5734,19 +6512,24 @@
       <c r="G132" s="2">
         <v>300</v>
       </c>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2">
-        <f t="shared" si="2"/>
+      <c r="H132" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2">
+        <f t="shared" si="6"/>
         <v>6.5999999999999948E-3</v>
       </c>
-      <c r="J132" s="2">
+      <c r="L132" s="2">
         <v>14</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="M132" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
@@ -5765,17 +6548,22 @@
       <c r="G133" s="2">
         <v>300</v>
       </c>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2">
-        <f t="shared" si="2"/>
+      <c r="H133" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2">
+        <f t="shared" si="6"/>
         <v>7.8000000000000014E-3</v>
       </c>
-      <c r="J133" s="2">
+      <c r="L133" s="2">
         <v>14</v>
       </c>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
@@ -5792,14 +6580,19 @@
       <c r="G134" s="2">
         <v>200</v>
       </c>
-      <c r="H134" s="2"/>
+      <c r="H134" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="I134" s="2"/>
-      <c r="J134" s="2">
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2">
         <v>14</v>
       </c>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
@@ -5818,17 +6611,22 @@
       <c r="G135" s="2">
         <v>200</v>
       </c>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2">
-        <f t="shared" si="2"/>
+      <c r="H135" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2">
+        <f t="shared" si="6"/>
         <v>1.0200000000000015E-2</v>
       </c>
-      <c r="J135" s="2">
+      <c r="L135" s="2">
         <v>14</v>
       </c>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>8</v>
       </c>
@@ -5847,17 +6645,22 @@
       <c r="G136" s="2">
         <v>200</v>
       </c>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2">
-        <f t="shared" si="2"/>
+      <c r="H136" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2">
+        <f t="shared" si="6"/>
         <v>1.1700000000000002E-2</v>
       </c>
-      <c r="J136" s="2">
+      <c r="L136" s="2">
         <v>14</v>
       </c>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -5876,19 +6679,24 @@
       <c r="G137" s="2">
         <v>200</v>
       </c>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2">
-        <f t="shared" si="2"/>
+      <c r="H137" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2">
+        <f t="shared" si="6"/>
         <v>1.1300000000000004E-2</v>
       </c>
-      <c r="J137" s="2">
+      <c r="L137" s="2">
         <v>14</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="M137" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -5907,17 +6715,22 @@
       <c r="G138" s="2">
         <v>400</v>
       </c>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2">
-        <f t="shared" si="2"/>
+      <c r="H138" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2">
+        <f t="shared" si="6"/>
         <v>1.4200000000000004E-2</v>
       </c>
-      <c r="J138" s="2">
+      <c r="L138" s="2">
         <v>14</v>
       </c>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
@@ -5936,17 +6749,22 @@
       <c r="G139" s="2">
         <v>400</v>
       </c>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2">
-        <f t="shared" si="2"/>
+      <c r="H139" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2">
+        <f t="shared" si="6"/>
         <v>1.7100000000000018E-2</v>
       </c>
-      <c r="J139" s="2">
+      <c r="L139" s="2">
         <v>14</v>
       </c>
-      <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
@@ -5965,17 +6783,22 @@
       <c r="G140" s="2">
         <v>300</v>
       </c>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2">
-        <f t="shared" si="2"/>
+      <c r="H140" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2">
+        <f t="shared" si="6"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="J140" s="2">
+      <c r="L140" s="2">
         <v>14</v>
       </c>
-      <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -5994,17 +6817,22 @@
       <c r="G141" s="2">
         <v>300</v>
       </c>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2">
-        <f t="shared" si="2"/>
+      <c r="H141" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2">
+        <f t="shared" si="6"/>
         <v>1.0399999999999993E-2</v>
       </c>
-      <c r="J141" s="2">
+      <c r="L141" s="2">
         <v>14</v>
       </c>
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -6023,17 +6851,22 @@
       <c r="G142" s="2">
         <v>200</v>
       </c>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2">
-        <f t="shared" si="2"/>
+      <c r="H142" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2">
+        <f t="shared" si="6"/>
         <v>1.55E-2</v>
       </c>
-      <c r="J142" s="2">
+      <c r="L142" s="2">
         <v>14</v>
       </c>
-      <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>9</v>
       </c>
@@ -6052,17 +6885,22 @@
       <c r="G143" s="2">
         <v>200</v>
       </c>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2">
-        <f t="shared" si="2"/>
+      <c r="H143" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2">
+        <f t="shared" si="6"/>
         <v>1.5700000000000006E-2</v>
       </c>
-      <c r="J143" s="2">
+      <c r="L143" s="2">
         <v>14</v>
       </c>
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>9</v>
       </c>
@@ -6081,17 +6919,22 @@
       <c r="G144" s="2">
         <v>200</v>
       </c>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2">
-        <f t="shared" si="2"/>
+      <c r="H144" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2">
+        <f t="shared" si="6"/>
         <v>1.5699999999999992E-2</v>
       </c>
-      <c r="J144" s="2">
+      <c r="L144" s="2">
         <v>14</v>
       </c>
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>9</v>
       </c>
@@ -6110,17 +6953,22 @@
       <c r="G145" s="2">
         <v>200</v>
       </c>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2">
-        <f t="shared" si="2"/>
+      <c r="H145" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2">
+        <f t="shared" si="6"/>
         <v>1.3499999999999998E-2</v>
       </c>
-      <c r="J145" s="2">
+      <c r="L145" s="2">
         <v>14</v>
       </c>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>8</v>
       </c>
@@ -6139,17 +6987,22 @@
       <c r="G146" s="2">
         <v>300</v>
       </c>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2">
-        <f t="shared" si="2"/>
+      <c r="H146" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2">
+        <f t="shared" si="6"/>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="J146" s="2">
+      <c r="L146" s="2">
         <v>7</v>
       </c>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
@@ -6168,19 +7021,24 @@
       <c r="G147" s="2">
         <v>300</v>
       </c>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2">
-        <f t="shared" si="2"/>
+      <c r="H147" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2">
+        <f t="shared" si="6"/>
         <v>4.4000000000000011E-3</v>
       </c>
-      <c r="J147" s="2">
+      <c r="L147" s="2">
         <v>7</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="M147" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
@@ -6199,17 +7057,22 @@
       <c r="G148" s="2">
         <v>300</v>
       </c>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2">
-        <f t="shared" si="2"/>
+      <c r="H148" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2">
+        <f t="shared" si="6"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="J148" s="2">
+      <c r="L148" s="2">
         <v>7</v>
       </c>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -6228,17 +7091,22 @@
       <c r="G149" s="2">
         <v>300</v>
       </c>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2">
-        <f t="shared" si="2"/>
+      <c r="H149" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2">
+        <f t="shared" si="6"/>
         <v>3.9999999999999897E-3</v>
       </c>
-      <c r="J149" s="2">
+      <c r="L149" s="2">
         <v>7</v>
       </c>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -6257,19 +7125,24 @@
       <c r="G150" s="2">
         <v>250</v>
       </c>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2">
-        <f t="shared" si="2"/>
+      <c r="H150" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2">
+        <f t="shared" si="6"/>
         <v>1.8500000000000016E-2</v>
       </c>
-      <c r="J150" s="2">
+      <c r="L150" s="2">
         <v>7</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="M150" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
@@ -6288,17 +7161,22 @@
       <c r="G151" s="2">
         <v>250</v>
       </c>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2">
-        <f t="shared" si="2"/>
+      <c r="H151" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2">
+        <f t="shared" si="6"/>
         <v>1.8799999999999997E-2</v>
       </c>
-      <c r="J151" s="2">
+      <c r="L151" s="2">
         <v>7</v>
       </c>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
@@ -6317,17 +7195,22 @@
       <c r="G152" s="2">
         <v>200</v>
       </c>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2">
-        <f t="shared" si="2"/>
+      <c r="H152" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2">
+        <f t="shared" si="6"/>
         <v>7.4999999999999928E-3</v>
       </c>
-      <c r="J152" s="2">
+      <c r="L152" s="2">
         <v>7</v>
       </c>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -6346,19 +7229,24 @@
       <c r="G153" s="2">
         <v>200</v>
       </c>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2">
-        <f t="shared" si="2"/>
+      <c r="H153" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2">
+        <f t="shared" si="6"/>
         <v>7.1999999999999981E-3</v>
       </c>
-      <c r="J153" s="2">
+      <c r="L153" s="2">
         <v>7</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="M153" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
@@ -6377,17 +7265,22 @@
       <c r="G154" s="2">
         <v>300</v>
       </c>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2">
-        <f t="shared" si="2"/>
+      <c r="H154" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2">
+        <f t="shared" si="6"/>
         <v>1.5999999999999986E-2</v>
       </c>
-      <c r="J154" s="2">
+      <c r="L154" s="2">
         <v>21</v>
       </c>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M154" s="2"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -6406,17 +7299,22 @@
       <c r="G155" s="2">
         <v>300</v>
       </c>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2">
-        <f t="shared" si="2"/>
+      <c r="H155" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2">
+        <f t="shared" si="6"/>
         <v>1.6199999999999992E-2</v>
       </c>
-      <c r="J155" s="2">
+      <c r="L155" s="2">
         <v>21</v>
       </c>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M155" s="2"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
@@ -6435,17 +7333,22 @@
       <c r="G156" s="2">
         <v>300</v>
       </c>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2">
-        <f t="shared" si="2"/>
+      <c r="H156" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2">
+        <f t="shared" si="6"/>
         <v>1.2899999999999995E-2</v>
       </c>
-      <c r="J156" s="2">
+      <c r="L156" s="2">
         <v>21</v>
       </c>
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M156" s="2"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -6464,17 +7367,22 @@
       <c r="G157" s="2">
         <v>300</v>
       </c>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2">
-        <f t="shared" si="2"/>
+      <c r="H157" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2">
+        <f t="shared" si="6"/>
         <v>1.2799999999999992E-2</v>
       </c>
-      <c r="J157" s="2">
+      <c r="L157" s="2">
         <v>21</v>
       </c>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M157" s="2"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -6493,17 +7401,22 @@
       <c r="G158" s="2">
         <v>200</v>
       </c>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2">
-        <f t="shared" si="2"/>
+      <c r="H158" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2">
+        <f t="shared" si="6"/>
         <v>2.4000000000000007E-2</v>
       </c>
-      <c r="J158" s="2">
+      <c r="L158" s="2">
         <v>21</v>
       </c>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -6520,14 +7433,19 @@
       <c r="G159" s="2">
         <v>200</v>
       </c>
-      <c r="H159" s="2"/>
+      <c r="H159" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="I159" s="2"/>
-      <c r="J159" s="2">
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2">
         <v>21</v>
       </c>
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M159" s="2"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -6546,17 +7464,22 @@
       <c r="G160" s="2">
         <v>200</v>
       </c>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2">
-        <f t="shared" si="2"/>
+      <c r="H160" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2">
+        <f t="shared" si="6"/>
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="J160" s="2">
+      <c r="L160" s="2">
         <v>21</v>
       </c>
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M160" s="2"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>9</v>
       </c>
@@ -6575,17 +7498,22 @@
       <c r="G161" s="2">
         <v>200</v>
       </c>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2">
-        <f t="shared" si="2"/>
+      <c r="H161" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2">
+        <f t="shared" si="6"/>
         <v>2.5699999999999987E-2</v>
       </c>
-      <c r="J161" s="2">
+      <c r="L161" s="2">
         <v>21</v>
       </c>
-      <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M161" s="2"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
@@ -6602,16 +7530,21 @@
       <c r="G162" s="2">
         <v>200</v>
       </c>
-      <c r="H162" s="2"/>
+      <c r="H162" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="I162" s="2"/>
-      <c r="J162" s="2">
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2">
         <v>14</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="M162" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>8</v>
       </c>
@@ -6628,16 +7561,21 @@
       <c r="G163" s="2">
         <v>195</v>
       </c>
-      <c r="H163" s="2"/>
+      <c r="H163" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19500000000000001</v>
+      </c>
       <c r="I163" s="2"/>
-      <c r="J163" s="2">
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2">
         <v>14</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="M163" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>8</v>
       </c>
@@ -6656,19 +7594,24 @@
       <c r="G164" s="2">
         <v>150</v>
       </c>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2">
-        <f t="shared" si="2"/>
+      <c r="H164" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2">
+        <f t="shared" si="6"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="J164" s="2">
+      <c r="L164" s="2">
         <v>14</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="M164" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>8</v>
       </c>
@@ -6676,7 +7619,7 @@
         <v>43672</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E165" s="2">
         <v>0.1145</v>
@@ -6687,19 +7630,24 @@
       <c r="G165" s="2">
         <v>150</v>
       </c>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2">
-        <f t="shared" si="2"/>
+      <c r="H165" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2">
+        <f t="shared" si="6"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J165" s="2">
+      <c r="L165" s="2">
         <v>14</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="M165" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +7655,7 @@
         <v>43672</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E166" s="2">
         <v>0.1138</v>
@@ -6718,19 +7666,24 @@
       <c r="G166" s="2">
         <v>150</v>
       </c>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2">
-        <f t="shared" si="2"/>
+      <c r="H166" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2">
+        <f t="shared" si="6"/>
         <v>1.8700000000000008E-2</v>
       </c>
-      <c r="J166" s="2">
+      <c r="L166" s="2">
         <v>14</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="M166" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
@@ -6749,19 +7702,24 @@
       <c r="G167" s="2">
         <v>150</v>
       </c>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2">
-        <f t="shared" si="2"/>
+      <c r="H167" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2">
+        <f t="shared" si="6"/>
         <v>1.9000000000000017E-2</v>
       </c>
-      <c r="J167" s="2">
+      <c r="L167" s="2">
         <v>14</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="M167" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
@@ -6780,19 +7738,24 @@
       <c r="G168" s="2">
         <v>150</v>
       </c>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2">
-        <f t="shared" si="2"/>
+      <c r="H168" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2">
+        <f t="shared" si="6"/>
         <v>1.0900000000000007E-2</v>
       </c>
-      <c r="J168" s="2">
+      <c r="L168" s="2">
         <v>14</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="M168" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>8</v>
       </c>
@@ -6811,19 +7774,24 @@
       <c r="G169" s="2">
         <v>110</v>
       </c>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2">
-        <f t="shared" si="2"/>
+      <c r="H169" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2">
+        <f t="shared" si="6"/>
         <v>1.5500000000000014E-2</v>
       </c>
-      <c r="J169" s="2">
+      <c r="L169" s="2">
         <v>14</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="M169" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>8</v>
       </c>
@@ -6842,19 +7810,24 @@
       <c r="G170" s="2">
         <v>150</v>
       </c>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2">
-        <f t="shared" si="2"/>
+      <c r="H170" s="2">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2">
+        <f t="shared" si="6"/>
         <v>1.490000000000001E-2</v>
       </c>
-      <c r="J170" s="2">
+      <c r="L170" s="2">
         <v>14</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="M170" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>9</v>
       </c>
@@ -6873,17 +7846,22 @@
       <c r="G171" s="2">
         <v>100</v>
       </c>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2">
-        <f t="shared" si="2"/>
+      <c r="H171" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2">
+        <f t="shared" si="6"/>
         <v>9.5999999999999974E-3</v>
       </c>
-      <c r="J171" s="2">
+      <c r="L171" s="2">
         <v>14</v>
       </c>
-      <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>9</v>
       </c>
@@ -6891,7 +7869,7 @@
         <v>43686</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E172" s="2">
         <v>0.11409999999999999</v>
@@ -6902,17 +7880,22 @@
       <c r="G172" s="2">
         <v>100</v>
       </c>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2">
-        <f t="shared" si="2"/>
+      <c r="H172" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2">
+        <f t="shared" si="6"/>
         <v>9.2000000000000137E-3</v>
       </c>
-      <c r="J172" s="2">
+      <c r="L172" s="2">
         <v>14</v>
       </c>
-      <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M172" s="2"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>9</v>
       </c>
@@ -6931,17 +7914,22 @@
       <c r="G173" s="2">
         <v>100</v>
       </c>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2">
-        <f t="shared" si="2"/>
+      <c r="H173" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2">
+        <f t="shared" si="6"/>
         <v>8.4000000000000047E-3</v>
       </c>
-      <c r="J173" s="2">
+      <c r="L173" s="2">
         <v>14</v>
       </c>
-      <c r="K173" s="2"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M173" s="2"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>9</v>
       </c>
@@ -6960,17 +7948,22 @@
       <c r="G174" s="2">
         <v>100</v>
       </c>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2">
-        <f t="shared" si="2"/>
+      <c r="H174" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2">
+        <f t="shared" si="6"/>
         <v>8.9999999999999941E-3</v>
       </c>
-      <c r="J174" s="2">
+      <c r="L174" s="2">
         <v>14</v>
       </c>
-      <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>9</v>
       </c>
@@ -6989,17 +7982,22 @@
       <c r="G175" s="2">
         <v>75</v>
       </c>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2">
-        <f t="shared" si="2"/>
+      <c r="H175" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2">
+        <f t="shared" si="6"/>
         <v>1.0900000000000007E-2</v>
       </c>
-      <c r="J175" s="2">
+      <c r="L175" s="2">
         <v>14</v>
       </c>
-      <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -7018,17 +8016,22 @@
       <c r="G176" s="2">
         <v>75</v>
       </c>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2">
-        <f t="shared" si="2"/>
+      <c r="H176" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2">
+        <f t="shared" si="6"/>
         <v>8.4999999999999937E-3</v>
       </c>
-      <c r="J176" s="2">
+      <c r="L176" s="2">
         <v>14</v>
       </c>
-      <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M176" s="2"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>9</v>
       </c>
@@ -7047,17 +8050,22 @@
       <c r="G177" s="2">
         <v>75</v>
       </c>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2">
-        <f t="shared" si="2"/>
+      <c r="H177" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2">
+        <f t="shared" si="6"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="J177" s="2">
+      <c r="L177" s="2">
         <v>14</v>
       </c>
-      <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M177" s="2"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>9</v>
       </c>
@@ -7076,17 +8084,22 @@
       <c r="G178" s="2">
         <v>75</v>
       </c>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2">
-        <f t="shared" si="2"/>
+      <c r="H178" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2">
+        <f t="shared" si="6"/>
         <v>1.2500000000000011E-2</v>
       </c>
-      <c r="J178" s="2">
+      <c r="L178" s="2">
         <v>14</v>
       </c>
-      <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M178" s="2"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>8</v>
       </c>
@@ -7105,17 +8118,22 @@
       <c r="G179" s="2">
         <v>100</v>
       </c>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2">
-        <f t="shared" si="2"/>
+      <c r="H179" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2">
+        <f t="shared" si="6"/>
         <v>4.7999999999999987E-3</v>
       </c>
-      <c r="J179" s="2">
+      <c r="L179" s="2">
         <v>14</v>
       </c>
-      <c r="K179" s="2"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M179" s="2"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>8</v>
       </c>
@@ -7134,17 +8152,22 @@
       <c r="G180" s="2">
         <v>100</v>
       </c>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2">
-        <f t="shared" si="2"/>
+      <c r="H180" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2">
+        <f t="shared" si="6"/>
         <v>3.9999999999999897E-3</v>
       </c>
-      <c r="J180" s="2">
+      <c r="L180" s="2">
         <v>14</v>
       </c>
-      <c r="K180" s="2"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M180" s="2"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>9</v>
       </c>
@@ -7163,17 +8186,22 @@
       <c r="G181" s="2">
         <v>100</v>
       </c>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2">
-        <f t="shared" si="2"/>
+      <c r="H181" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2">
+        <f t="shared" si="6"/>
         <v>1.1799999999999991E-2</v>
       </c>
-      <c r="J181" s="2">
+      <c r="L181" s="2">
         <v>14</v>
       </c>
-      <c r="K181" s="2"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M181" s="2"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -7192,17 +8220,22 @@
       <c r="G182" s="2">
         <v>100</v>
       </c>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2">
-        <f t="shared" si="2"/>
+      <c r="H182" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2">
+        <f t="shared" si="6"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="J182" s="2">
+      <c r="L182" s="2">
         <v>14</v>
       </c>
-      <c r="K182" s="2"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M182" s="2"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>14</v>
       </c>
@@ -7221,17 +8254,22 @@
       <c r="G183" s="2">
         <v>100</v>
       </c>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2">
-        <f t="shared" si="2"/>
+      <c r="H183" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2">
+        <f t="shared" si="6"/>
         <v>4.1999999999999954E-3</v>
       </c>
-      <c r="J183" s="2">
+      <c r="L183" s="2">
         <v>14</v>
       </c>
-      <c r="K183" s="2"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M183" s="2"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>14</v>
       </c>
@@ -7250,17 +8288,22 @@
       <c r="G184" s="2">
         <v>100</v>
       </c>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2">
-        <f t="shared" si="2"/>
+      <c r="H184" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2">
+        <f t="shared" si="6"/>
         <v>5.499999999999991E-3</v>
       </c>
-      <c r="J184" s="2">
+      <c r="L184" s="2">
         <v>14</v>
       </c>
-      <c r="K184" s="2"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M184" s="2"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>9</v>
       </c>
@@ -7279,17 +8322,22 @@
       <c r="G185" s="2">
         <v>100</v>
       </c>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2">
-        <f t="shared" si="2"/>
+      <c r="H185" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2">
+        <f t="shared" si="6"/>
         <v>1.1099999999999999E-2</v>
       </c>
-      <c r="J185" s="2">
+      <c r="L185" s="2">
         <v>14</v>
       </c>
-      <c r="K185" s="2"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M185" s="2"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>9</v>
       </c>
@@ -7308,17 +8356,22 @@
       <c r="G186" s="2">
         <v>100</v>
       </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2">
-        <f t="shared" si="2"/>
+      <c r="H186" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2">
+        <f t="shared" si="6"/>
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J186" s="2">
+      <c r="L186" s="2">
         <v>14</v>
       </c>
-      <c r="K186" s="2"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M186" s="2"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>8</v>
       </c>
@@ -7337,17 +8390,22 @@
       <c r="G187" s="2">
         <v>100</v>
       </c>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2">
-        <f t="shared" si="2"/>
+      <c r="H187" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2">
+        <f t="shared" si="6"/>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="J187" s="2">
+      <c r="L187" s="2">
         <v>13</v>
       </c>
-      <c r="K187" s="2"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M187" s="2"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>8</v>
       </c>
@@ -7366,17 +8424,22 @@
       <c r="G188" s="2">
         <v>100</v>
       </c>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2">
-        <f t="shared" si="2"/>
+      <c r="H188" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2">
+        <f t="shared" si="6"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="J188" s="2">
+      <c r="L188" s="2">
         <v>13</v>
       </c>
-      <c r="K188" s="2"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M188" s="2"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
@@ -7395,17 +8458,22 @@
       <c r="G189" s="2">
         <v>100</v>
       </c>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2">
-        <f t="shared" si="2"/>
+      <c r="H189" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2">
+        <f t="shared" si="6"/>
         <v>4.1000000000000064E-3</v>
       </c>
-      <c r="J189" s="2">
+      <c r="L189" s="2">
         <v>13</v>
       </c>
-      <c r="K189" s="2"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M189" s="2"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>8</v>
       </c>
@@ -7424,17 +8492,22 @@
       <c r="G190" s="2">
         <v>100</v>
       </c>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2">
-        <f t="shared" si="2"/>
+      <c r="H190" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2">
+        <f t="shared" si="6"/>
         <v>4.2000000000000093E-3</v>
       </c>
-      <c r="J190" s="2">
+      <c r="L190" s="2">
         <v>13</v>
       </c>
-      <c r="K190" s="2"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M190" s="2"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>8</v>
       </c>
@@ -7453,17 +8526,22 @@
       <c r="G191" s="2">
         <v>100</v>
       </c>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2">
-        <f t="shared" si="2"/>
+      <c r="H191" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2">
+        <f t="shared" si="6"/>
         <v>1.0899999999999993E-2</v>
       </c>
-      <c r="J191" s="2">
+      <c r="L191" s="2">
         <v>13</v>
       </c>
-      <c r="K191" s="2"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M191" s="2"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>8</v>
       </c>
@@ -7482,17 +8560,22 @@
       <c r="G192" s="2">
         <v>100</v>
       </c>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2">
-        <f t="shared" si="2"/>
+      <c r="H192" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2">
+        <f t="shared" si="6"/>
         <v>5.1000000000000073E-3</v>
       </c>
-      <c r="J192" s="2">
+      <c r="L192" s="2">
         <v>13</v>
       </c>
-      <c r="K192" s="2"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M192" s="2"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>8</v>
       </c>
@@ -7511,17 +8594,22 @@
       <c r="G193" s="2">
         <v>100</v>
       </c>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2">
-        <f t="shared" si="2"/>
+      <c r="H193" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2">
+        <f t="shared" si="6"/>
         <v>1.3300000000000006E-2</v>
       </c>
-      <c r="J193" s="2">
+      <c r="L193" s="2">
         <v>13</v>
       </c>
-      <c r="K193" s="2"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M193" s="2"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>8</v>
       </c>
@@ -7540,17 +8628,22 @@
       <c r="G194" s="2">
         <v>100</v>
       </c>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2">
-        <f t="shared" si="2"/>
+      <c r="H194" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2">
+        <f t="shared" si="6"/>
         <v>1.3600000000000001E-2</v>
       </c>
-      <c r="J194" s="2">
+      <c r="L194" s="2">
         <v>13</v>
       </c>
-      <c r="K194" s="2"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M194" s="2"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>26</v>
       </c>
@@ -7570,20 +8663,28 @@
         <v>100</v>
       </c>
       <c r="H195" s="2">
+        <f t="shared" ref="H195:H226" si="7">G195/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="I195" s="2">
         <v>1530</v>
       </c>
-      <c r="I195" s="2">
-        <f t="shared" ref="I195:I226" si="3">F195-E195</f>
+      <c r="J195" s="2">
+        <f t="shared" ref="J195:J226" si="8">I195/1000</f>
+        <v>1.53</v>
+      </c>
+      <c r="K195" s="2">
+        <f t="shared" ref="K195:K226" si="9">F195-E195</f>
         <v>2.2000000000000075E-3</v>
       </c>
-      <c r="J195" s="2">
+      <c r="L195" s="2">
         <v>16</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="M195" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>26</v>
       </c>
@@ -7603,18 +8704,26 @@
         <v>100</v>
       </c>
       <c r="H196" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I196" s="2">
         <v>1530</v>
       </c>
-      <c r="I196" s="2">
-        <f t="shared" si="3"/>
+      <c r="J196" s="2">
+        <f t="shared" si="8"/>
+        <v>1.53</v>
+      </c>
+      <c r="K196" s="2">
+        <f t="shared" si="9"/>
         <v>2.9999999999999888E-3</v>
       </c>
-      <c r="J196" s="2">
+      <c r="L196" s="2">
         <v>16</v>
       </c>
-      <c r="K196" s="2"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M196" s="2"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>26</v>
       </c>
@@ -7634,18 +8743,26 @@
         <v>100</v>
       </c>
       <c r="H197" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I197" s="2">
         <v>1550</v>
       </c>
-      <c r="I197" s="2">
-        <f t="shared" si="3"/>
+      <c r="J197" s="2">
+        <f t="shared" si="8"/>
+        <v>1.55</v>
+      </c>
+      <c r="K197" s="2">
+        <f t="shared" si="9"/>
         <v>2.7000000000000079E-3</v>
       </c>
-      <c r="J197" s="2">
+      <c r="L197" s="2">
         <v>16</v>
       </c>
-      <c r="K197" s="2"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M197" s="2"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>26</v>
       </c>
@@ -7665,18 +8782,26 @@
         <v>100</v>
       </c>
       <c r="H198" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I198" s="2">
         <v>1550</v>
       </c>
-      <c r="I198" s="2">
-        <f t="shared" si="3"/>
+      <c r="J198" s="2">
+        <f t="shared" si="8"/>
+        <v>1.55</v>
+      </c>
+      <c r="K198" s="2">
+        <f t="shared" si="9"/>
         <v>3.4999999999999892E-3</v>
       </c>
-      <c r="J198" s="2">
+      <c r="L198" s="2">
         <v>16</v>
       </c>
-      <c r="K198" s="2"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M198" s="2"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>26</v>
       </c>
@@ -7696,18 +8821,26 @@
         <v>100</v>
       </c>
       <c r="H199" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I199" s="2">
         <v>1540</v>
       </c>
-      <c r="I199" s="2">
-        <f t="shared" si="3"/>
+      <c r="J199" s="2">
+        <f t="shared" si="8"/>
+        <v>1.54</v>
+      </c>
+      <c r="K199" s="2">
+        <f t="shared" si="9"/>
         <v>8.0999999999999961E-3</v>
       </c>
-      <c r="J199" s="2">
+      <c r="L199" s="2">
         <v>16</v>
       </c>
-      <c r="K199" s="2"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M199" s="2"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>26</v>
       </c>
@@ -7727,18 +8860,26 @@
         <v>100</v>
       </c>
       <c r="H200" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I200" s="2">
         <v>1540</v>
       </c>
-      <c r="I200" s="2">
-        <f t="shared" si="3"/>
+      <c r="J200" s="2">
+        <f t="shared" si="8"/>
+        <v>1.54</v>
+      </c>
+      <c r="K200" s="2">
+        <f t="shared" si="9"/>
         <v>9.4999999999999946E-3</v>
       </c>
-      <c r="J200" s="2">
+      <c r="L200" s="2">
         <v>16</v>
       </c>
-      <c r="K200" s="2"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M200" s="2"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>26</v>
       </c>
@@ -7758,18 +8899,26 @@
         <v>100</v>
       </c>
       <c r="H201" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I201" s="2">
         <v>1395</v>
       </c>
-      <c r="I201" s="2">
-        <f t="shared" si="3"/>
+      <c r="J201" s="2">
+        <f t="shared" si="8"/>
+        <v>1.395</v>
+      </c>
+      <c r="K201" s="2">
+        <f t="shared" si="9"/>
         <v>7.1999999999999981E-3</v>
       </c>
-      <c r="J201" s="2">
+      <c r="L201" s="2">
         <v>16</v>
       </c>
-      <c r="K201" s="2"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M201" s="2"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>26</v>
       </c>
@@ -7789,18 +8938,26 @@
         <v>100</v>
       </c>
       <c r="H202" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I202" s="2">
         <v>1395</v>
       </c>
-      <c r="I202" s="2">
-        <f t="shared" si="3"/>
+      <c r="J202" s="2">
+        <f t="shared" si="8"/>
+        <v>1.395</v>
+      </c>
+      <c r="K202" s="2">
+        <f t="shared" si="9"/>
         <v>1.0099999999999984E-2</v>
       </c>
-      <c r="J202" s="2">
+      <c r="L202" s="2">
         <v>16</v>
       </c>
-      <c r="K202" s="2"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M202" s="2"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>9</v>
       </c>
@@ -7820,18 +8977,26 @@
         <v>100</v>
       </c>
       <c r="H203" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I203" s="2">
         <v>1470</v>
       </c>
-      <c r="I203" s="2">
-        <f t="shared" si="3"/>
+      <c r="J203" s="2">
+        <f t="shared" si="8"/>
+        <v>1.47</v>
+      </c>
+      <c r="K203" s="2">
+        <f t="shared" si="9"/>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="J203" s="2">
+      <c r="L203" s="2">
         <v>14</v>
       </c>
-      <c r="K203" s="2"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M203" s="2"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>9</v>
       </c>
@@ -7849,15 +9014,23 @@
         <v>100</v>
       </c>
       <c r="H204" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I204" s="2">
         <v>1470</v>
       </c>
-      <c r="I204" s="2"/>
       <c r="J204" s="2">
+        <f t="shared" si="8"/>
+        <v>1.47</v>
+      </c>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2">
         <v>14</v>
       </c>
-      <c r="K204" s="2"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M204" s="2"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>9</v>
       </c>
@@ -7877,18 +9050,26 @@
         <v>200</v>
       </c>
       <c r="H205" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="I205" s="2">
         <v>1360</v>
       </c>
-      <c r="I205" s="2">
-        <f t="shared" si="3"/>
+      <c r="J205" s="2">
+        <f t="shared" si="8"/>
+        <v>1.36</v>
+      </c>
+      <c r="K205" s="2">
+        <f t="shared" si="9"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J205" s="2">
+      <c r="L205" s="2">
         <v>14</v>
       </c>
-      <c r="K205" s="2"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M205" s="2"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -7908,18 +9089,26 @@
         <v>200</v>
       </c>
       <c r="H206" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="I206" s="2">
         <v>1360</v>
       </c>
-      <c r="I206" s="2">
-        <f t="shared" si="3"/>
+      <c r="J206" s="2">
+        <f t="shared" si="8"/>
+        <v>1.36</v>
+      </c>
+      <c r="K206" s="2">
+        <f t="shared" si="9"/>
         <v>4.1999999999999954E-3</v>
       </c>
-      <c r="J206" s="2">
+      <c r="L206" s="2">
         <v>14</v>
       </c>
-      <c r="K206" s="2"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M206" s="2"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>9</v>
       </c>
@@ -7939,18 +9128,26 @@
         <v>100</v>
       </c>
       <c r="H207" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I207" s="2">
         <v>1550</v>
       </c>
-      <c r="I207" s="2">
-        <f t="shared" si="3"/>
+      <c r="J207" s="2">
+        <f t="shared" si="8"/>
+        <v>1.55</v>
+      </c>
+      <c r="K207" s="2">
+        <f t="shared" si="9"/>
         <v>1.2300000000000019E-2</v>
       </c>
-      <c r="J207" s="2">
+      <c r="L207" s="2">
         <v>14</v>
       </c>
-      <c r="K207" s="2"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M207" s="2"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>9</v>
       </c>
@@ -7970,18 +9167,26 @@
         <v>100</v>
       </c>
       <c r="H208" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I208" s="2">
         <v>1550</v>
       </c>
-      <c r="I208" s="2">
-        <f t="shared" si="3"/>
+      <c r="J208" s="2">
+        <f t="shared" si="8"/>
+        <v>1.55</v>
+      </c>
+      <c r="K208" s="2">
+        <f t="shared" si="9"/>
         <v>1.0700000000000001E-2</v>
       </c>
-      <c r="J208" s="2">
+      <c r="L208" s="2">
         <v>14</v>
       </c>
-      <c r="K208" s="2"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M208" s="2"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>9</v>
       </c>
@@ -8001,18 +9206,26 @@
         <v>100</v>
       </c>
       <c r="H209" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I209" s="2">
         <v>1575</v>
       </c>
-      <c r="I209" s="2">
-        <f t="shared" si="3"/>
+      <c r="J209" s="2">
+        <f t="shared" si="8"/>
+        <v>1.575</v>
+      </c>
+      <c r="K209" s="2">
+        <f t="shared" si="9"/>
         <v>8.5000000000000075E-3</v>
       </c>
-      <c r="J209" s="2">
+      <c r="L209" s="2">
         <v>14</v>
       </c>
-      <c r="K209" s="2"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M209" s="2"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>9</v>
       </c>
@@ -8032,18 +9245,26 @@
         <v>100</v>
       </c>
       <c r="H210" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I210" s="2">
         <v>1575</v>
       </c>
-      <c r="I210" s="2">
-        <f t="shared" si="3"/>
+      <c r="J210" s="2">
+        <f t="shared" si="8"/>
+        <v>1.575</v>
+      </c>
+      <c r="K210" s="2">
+        <f t="shared" si="9"/>
         <v>8.5999999999999965E-3</v>
       </c>
-      <c r="J210" s="2">
+      <c r="L210" s="2">
         <v>14</v>
       </c>
-      <c r="K210" s="2"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M210" s="2"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
@@ -8063,18 +9284,26 @@
         <v>45</v>
       </c>
       <c r="H211" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I211" s="2">
         <v>1700</v>
       </c>
-      <c r="I211" s="2">
-        <f t="shared" si="3"/>
+      <c r="J211" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="K211" s="2">
+        <f t="shared" si="9"/>
         <v>1.0900000000000007E-2</v>
       </c>
-      <c r="J211" s="2">
+      <c r="L211" s="2">
         <v>14</v>
       </c>
-      <c r="K211" s="2"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M211" s="2"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>7</v>
       </c>
@@ -8094,18 +9323,26 @@
         <v>55</v>
       </c>
       <c r="H212" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="I212" s="2">
         <v>1700</v>
       </c>
-      <c r="I212" s="2">
-        <f t="shared" si="3"/>
+      <c r="J212" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="K212" s="2">
+        <f t="shared" si="9"/>
         <v>1.0500000000000009E-2</v>
       </c>
-      <c r="J212" s="2">
+      <c r="L212" s="2">
         <v>14</v>
       </c>
-      <c r="K212" s="2"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M212" s="2"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>7</v>
       </c>
@@ -8125,18 +9362,26 @@
         <v>100</v>
       </c>
       <c r="H213" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I213" s="2">
         <v>1620</v>
       </c>
-      <c r="I213" s="2">
-        <f t="shared" si="3"/>
+      <c r="J213" s="2">
+        <f t="shared" si="8"/>
+        <v>1.62</v>
+      </c>
+      <c r="K213" s="2">
+        <f t="shared" si="9"/>
         <v>9.4999999999999946E-3</v>
       </c>
-      <c r="J213" s="2">
+      <c r="L213" s="2">
         <v>14</v>
       </c>
-      <c r="K213" s="2"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M213" s="2"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>7</v>
       </c>
@@ -8156,18 +9401,26 @@
         <v>80</v>
       </c>
       <c r="H214" s="2">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+      <c r="I214" s="2">
         <v>1620</v>
       </c>
-      <c r="I214" s="2">
-        <f t="shared" si="3"/>
+      <c r="J214" s="2">
+        <f t="shared" si="8"/>
+        <v>1.62</v>
+      </c>
+      <c r="K214" s="2">
+        <f t="shared" si="9"/>
         <v>8.10000000000001E-3</v>
       </c>
-      <c r="J214" s="2">
+      <c r="L214" s="2">
         <v>14</v>
       </c>
-      <c r="K214" s="2"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M214" s="2"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>7</v>
       </c>
@@ -8187,18 +9440,26 @@
         <v>85</v>
       </c>
       <c r="H215" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I215" s="2">
         <v>1620</v>
       </c>
-      <c r="I215" s="2">
-        <f t="shared" si="3"/>
+      <c r="J215" s="2">
+        <f t="shared" si="8"/>
+        <v>1.62</v>
+      </c>
+      <c r="K215" s="2">
+        <f t="shared" si="9"/>
         <v>8.2000000000000128E-3</v>
       </c>
-      <c r="J215" s="2">
+      <c r="L215" s="2">
         <v>14</v>
       </c>
-      <c r="K215" s="2"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M215" s="2"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>7</v>
       </c>
@@ -8218,18 +9479,26 @@
         <v>75</v>
       </c>
       <c r="H216" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I216" s="2">
         <v>1620</v>
       </c>
-      <c r="I216" s="2">
-        <f t="shared" si="3"/>
+      <c r="J216" s="2">
+        <f t="shared" si="8"/>
+        <v>1.62</v>
+      </c>
+      <c r="K216" s="2">
+        <f t="shared" si="9"/>
         <v>7.6999999999999985E-3</v>
       </c>
-      <c r="J216" s="2">
+      <c r="L216" s="2">
         <v>14</v>
       </c>
-      <c r="K216" s="2"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M216" s="2"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>7</v>
       </c>
@@ -8249,18 +9518,26 @@
         <v>50</v>
       </c>
       <c r="H217" s="2">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="I217" s="2">
         <v>1500</v>
       </c>
-      <c r="I217" s="2">
-        <f t="shared" si="3"/>
+      <c r="J217" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="K217" s="2">
+        <f t="shared" si="9"/>
         <v>8.9000000000000051E-3</v>
       </c>
-      <c r="J217" s="2">
+      <c r="L217" s="2">
         <v>14</v>
       </c>
-      <c r="K217" s="2"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M217" s="2"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>7</v>
       </c>
@@ -8280,18 +9557,26 @@
         <v>45</v>
       </c>
       <c r="H218" s="2">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I218" s="2">
         <v>1500</v>
       </c>
-      <c r="I218" s="2">
-        <f t="shared" si="3"/>
+      <c r="J218" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="K218" s="2">
+        <f t="shared" si="9"/>
         <v>9.099999999999997E-3</v>
       </c>
-      <c r="J218" s="2">
+      <c r="L218" s="2">
         <v>14</v>
       </c>
-      <c r="K218" s="2"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M218" s="2"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>8</v>
       </c>
@@ -8311,18 +9596,26 @@
         <v>75</v>
       </c>
       <c r="H219" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I219" s="2">
         <v>1655</v>
       </c>
-      <c r="I219" s="2">
-        <f t="shared" si="3"/>
+      <c r="J219" s="2">
+        <f t="shared" si="8"/>
+        <v>1.655</v>
+      </c>
+      <c r="K219" s="2">
+        <f t="shared" si="9"/>
         <v>3.9000000000000007E-3</v>
       </c>
-      <c r="J219" s="2">
+      <c r="L219" s="2">
         <v>10</v>
       </c>
-      <c r="K219" s="2"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M219" s="2"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>8</v>
       </c>
@@ -8342,18 +9635,26 @@
         <v>75</v>
       </c>
       <c r="H220" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I220" s="2">
         <v>1655</v>
       </c>
-      <c r="I220" s="2">
-        <f t="shared" si="3"/>
+      <c r="J220" s="2">
+        <f t="shared" si="8"/>
+        <v>1.655</v>
+      </c>
+      <c r="K220" s="2">
+        <f t="shared" si="9"/>
         <v>4.7000000000000097E-3</v>
       </c>
-      <c r="J220" s="2">
+      <c r="L220" s="2">
         <v>10</v>
       </c>
-      <c r="K220" s="2"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M220" s="2"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
@@ -8373,18 +9674,26 @@
         <v>75</v>
       </c>
       <c r="H221" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I221" s="2">
         <v>1670</v>
       </c>
-      <c r="I221" s="2">
-        <f t="shared" si="3"/>
+      <c r="J221" s="2">
+        <f t="shared" si="8"/>
+        <v>1.67</v>
+      </c>
+      <c r="K221" s="2">
+        <f t="shared" si="9"/>
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="J221" s="2">
+      <c r="L221" s="2">
         <v>10</v>
       </c>
-      <c r="K221" s="2"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M221" s="2"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>8</v>
       </c>
@@ -8404,18 +9713,26 @@
         <v>75</v>
       </c>
       <c r="H222" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I222" s="2">
         <v>1670</v>
       </c>
-      <c r="I222" s="2">
-        <f t="shared" si="3"/>
+      <c r="J222" s="2">
+        <f t="shared" si="8"/>
+        <v>1.67</v>
+      </c>
+      <c r="K222" s="2">
+        <f t="shared" si="9"/>
         <v>3.7999999999999978E-3</v>
       </c>
-      <c r="J222" s="2">
+      <c r="L222" s="2">
         <v>10</v>
       </c>
-      <c r="K222" s="2"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M222" s="2"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>8</v>
       </c>
@@ -8435,18 +9752,26 @@
         <v>75</v>
       </c>
       <c r="H223" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I223" s="2">
         <v>1700</v>
       </c>
-      <c r="I223" s="2">
-        <f t="shared" si="3"/>
+      <c r="J223" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="K223" s="2">
+        <f t="shared" si="9"/>
         <v>1.1099999999999999E-2</v>
       </c>
-      <c r="J223" s="2">
+      <c r="L223" s="2">
         <v>10</v>
       </c>
-      <c r="K223" s="2"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M223" s="2"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>8</v>
       </c>
@@ -8466,18 +9791,26 @@
         <v>75</v>
       </c>
       <c r="H224" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I224" s="2">
         <v>1700</v>
       </c>
-      <c r="I224" s="2">
-        <f t="shared" si="3"/>
+      <c r="J224" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="K224" s="2">
+        <f t="shared" si="9"/>
         <v>1.1400000000000007E-2</v>
       </c>
-      <c r="J224" s="2">
+      <c r="L224" s="2">
         <v>10</v>
       </c>
-      <c r="K224" s="2"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M224" s="2"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>8</v>
       </c>
@@ -8497,18 +9830,26 @@
         <v>75</v>
       </c>
       <c r="H225" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I225" s="2">
         <v>1650</v>
       </c>
-      <c r="I225" s="2">
-        <f t="shared" si="3"/>
+      <c r="J225" s="2">
+        <f t="shared" si="8"/>
+        <v>1.65</v>
+      </c>
+      <c r="K225" s="2">
+        <f t="shared" si="9"/>
         <v>1.0800000000000004E-2</v>
       </c>
-      <c r="J225" s="2">
+      <c r="L225" s="2">
         <v>10</v>
       </c>
-      <c r="K225" s="2"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M225" s="2"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
@@ -8528,16 +9869,24 @@
         <v>75</v>
       </c>
       <c r="H226" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I226" s="2">
         <v>1650</v>
       </c>
-      <c r="I226" s="2">
-        <f t="shared" si="3"/>
+      <c r="J226" s="2">
+        <f t="shared" si="8"/>
+        <v>1.65</v>
+      </c>
+      <c r="K226" s="2">
+        <f t="shared" si="9"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J226" s="2">
+      <c r="L226" s="2">
         <v>10</v>
       </c>
-      <c r="K226" s="2"/>
+      <c r="M226" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2019_FilteringLog_EDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlybauer/Desktop/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C9528-3A23-3247-B866-31DCB77B3AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6805F13-30BC-B447-A4DB-BB254B07C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="-16000" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4380" yWindow="-16000" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1881,11 +1881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95524E5-9B15-A149-8F68-1904FFC7B4AB}">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -4641,7 +4641,7 @@
         <v>1510</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" ref="J67:J130" si="4">I82/1000</f>
+        <f t="shared" ref="J82:J113" si="4">I82/1000</f>
         <v>1.51</v>
       </c>
       <c r="K82" s="2">
